--- a/BackTest/2020-01-20 BackTest DAC.xlsx
+++ b/BackTest/2020-01-20 BackTest DAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -11143,10 +11143,14 @@
         <v>-4748993.762099997</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="J326" t="n">
+        <v>1.903</v>
+      </c>
       <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
@@ -11179,8 +11183,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11212,8 +11222,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11473,10 +11489,14 @@
         <v>-4693607.702799996</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="J336" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
@@ -11509,8 +11529,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11542,8 +11568,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11575,8 +11607,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11608,8 +11646,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11641,8 +11685,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11674,8 +11724,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11707,8 +11763,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11737,15 +11799,17 @@
         <v>-4696508.495899997</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
-      </c>
-      <c r="I344" t="n">
-        <v>1.899</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="K344" t="inlineStr"/>
+        <v>1.905</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11778,11 +11842,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>1.899</v>
+        <v>1.905</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L345" t="n">
@@ -11817,11 +11881,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>1.899</v>
+        <v>1.905</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L346" t="n">
@@ -11855,8 +11919,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11888,8 +11958,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11921,8 +11997,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11951,15 +12033,15 @@
         <v>-4735383.851699998</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
-      </c>
-      <c r="I350" t="n">
-        <v>1.908</v>
-      </c>
-      <c r="J350" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L350" t="n">
@@ -11990,12 +12072,14 @@
         <v>-4691428.241899998</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I351" t="n">
         <v>1.898</v>
       </c>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12029,12 +12113,14 @@
         <v>-4648907.009299998</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I352" t="n">
         <v>1.902</v>
       </c>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12068,12 +12154,14 @@
         <v>-4692915.226599998</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I353" t="n">
         <v>1.905</v>
       </c>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12107,12 +12195,14 @@
         <v>-4649287.503999998</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I354" t="n">
         <v>1.903</v>
       </c>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12146,12 +12236,12 @@
         <v>-4684172.784699998</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
-      </c>
-      <c r="I355" t="n">
-        <v>1.918</v>
-      </c>
-      <c r="J355" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12185,12 +12275,12 @@
         <v>-4734198.016599998</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
-      </c>
-      <c r="I356" t="n">
-        <v>1.906</v>
-      </c>
-      <c r="J356" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12224,12 +12314,14 @@
         <v>-4686142.177299998</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I357" t="n">
         <v>1.9</v>
       </c>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12263,12 +12355,12 @@
         <v>-4640667.247299998</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
-      </c>
-      <c r="I358" t="n">
-        <v>1.906</v>
-      </c>
-      <c r="J358" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12302,12 +12394,14 @@
         <v>-4594339.849199998</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I359" t="n">
         <v>1.909</v>
       </c>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12341,12 +12435,12 @@
         <v>-4642149.584399998</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
-      </c>
-      <c r="I360" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="J360" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12380,12 +12474,12 @@
         <v>-4603253.804499998</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
-      </c>
-      <c r="I361" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="J361" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12422,7 +12516,9 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12459,7 +12555,9 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12496,7 +12594,9 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12533,7 +12633,9 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12570,7 +12672,9 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12607,7 +12711,9 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12644,7 +12750,9 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12681,7 +12789,9 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12718,7 +12828,9 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12755,7 +12867,9 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12792,7 +12906,9 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12826,10 +12942,14 @@
         <v>-4714092.138199999</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="J373" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12866,7 +12986,9 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12900,10 +13022,14 @@
         <v>-4637828.800699999</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="J375" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12940,7 +13066,9 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12977,7 +13105,9 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13014,7 +13144,9 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13051,7 +13183,9 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13088,7 +13222,9 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13125,7 +13261,9 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13162,7 +13300,9 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13199,7 +13339,9 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13236,7 +13378,9 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13273,7 +13417,9 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13310,7 +13456,9 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13347,7 +13495,9 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13384,7 +13534,9 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13421,7 +13573,9 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13458,7 +13612,9 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13495,7 +13651,9 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13532,7 +13690,9 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13569,7 +13729,9 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13606,7 +13768,9 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13643,7 +13807,9 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13680,7 +13846,9 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13717,7 +13885,9 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13754,7 +13924,9 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13791,7 +13963,9 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13828,7 +14002,9 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13865,7 +14041,9 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13902,7 +14080,9 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13939,7 +14119,9 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13976,7 +14158,9 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14013,7 +14197,9 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14050,7 +14236,9 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14087,7 +14275,9 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14124,7 +14314,9 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14161,7 +14353,9 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14198,7 +14392,9 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14235,7 +14431,9 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14272,7 +14470,9 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14309,7 +14509,9 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14346,7 +14548,9 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14383,7 +14587,9 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14420,7 +14626,9 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14457,7 +14665,9 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14494,7 +14704,9 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14531,7 +14743,9 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14568,7 +14782,9 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14605,7 +14821,9 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14642,7 +14860,9 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14679,7 +14899,9 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14716,7 +14938,9 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14753,7 +14977,9 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14790,7 +15016,9 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14827,7 +15055,9 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14864,7 +15094,9 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14901,7 +15133,9 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14938,7 +15172,9 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14975,7 +15211,9 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15012,7 +15250,9 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15049,7 +15289,9 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15086,7 +15328,9 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15123,7 +15367,9 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15160,7 +15406,9 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15197,7 +15445,9 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15234,7 +15484,9 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15271,7 +15523,9 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15308,7 +15562,9 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15345,7 +15601,9 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15382,7 +15640,9 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15419,7 +15679,9 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15456,7 +15718,9 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15493,7 +15757,9 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15530,7 +15796,9 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15567,7 +15835,9 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15604,7 +15874,9 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15641,7 +15913,9 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15678,7 +15952,9 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15715,7 +15991,9 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15752,7 +16030,9 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15789,7 +16069,9 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15826,7 +16108,9 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15863,7 +16147,9 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15900,7 +16186,9 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15937,7 +16225,9 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15974,7 +16264,9 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16011,7 +16303,9 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16048,7 +16342,9 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16085,7 +16381,9 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16122,7 +16420,9 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16159,7 +16459,9 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16196,7 +16498,9 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16233,7 +16537,9 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16270,7 +16576,9 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16307,7 +16615,9 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16344,7 +16654,9 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16381,7 +16693,9 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16418,7 +16732,9 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16455,7 +16771,9 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16492,7 +16810,9 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16529,7 +16849,9 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16566,7 +16888,9 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16603,7 +16927,9 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16640,7 +16966,9 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16677,7 +17005,9 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16714,7 +17044,9 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16751,7 +17083,9 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16788,7 +17122,9 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16825,7 +17161,9 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16862,7 +17200,9 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16899,7 +17239,9 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16936,7 +17278,9 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16973,7 +17317,9 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17010,7 +17356,9 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17047,7 +17395,9 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17084,7 +17434,9 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17121,7 +17473,9 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17158,7 +17512,9 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17195,7 +17551,9 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17232,7 +17590,9 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17269,7 +17629,9 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17306,7 +17668,9 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17343,7 +17707,9 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17380,7 +17746,9 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17417,7 +17785,9 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17454,7 +17824,9 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17491,7 +17863,9 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17528,7 +17902,9 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17565,7 +17941,9 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17602,7 +17980,9 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17639,7 +18019,9 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17676,7 +18058,9 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17713,7 +18097,9 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17750,7 +18136,9 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17787,7 +18175,9 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17824,7 +18214,9 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17861,7 +18253,9 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17898,7 +18292,9 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17935,7 +18331,9 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17972,7 +18370,9 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18009,7 +18409,9 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18046,7 +18448,9 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18083,7 +18487,9 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18120,7 +18526,9 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18157,7 +18565,9 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18194,7 +18604,9 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18231,7 +18643,9 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18268,7 +18682,9 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18305,7 +18721,9 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18342,7 +18760,9 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18379,7 +18799,9 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18416,7 +18838,9 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18453,7 +18877,9 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18490,7 +18916,9 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18527,7 +18955,9 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18564,7 +18994,9 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18601,7 +19033,9 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18638,7 +19072,9 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18675,7 +19111,9 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18712,7 +19150,9 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18749,7 +19189,9 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18786,7 +19228,9 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18823,7 +19267,9 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18860,7 +19306,9 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18897,7 +19345,9 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18934,7 +19384,9 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18971,7 +19423,9 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19008,7 +19462,9 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19045,7 +19501,9 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19082,7 +19540,9 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19119,7 +19579,9 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19156,7 +19618,9 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19193,7 +19657,9 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19230,7 +19696,9 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19267,7 +19735,9 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19304,7 +19774,9 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19341,7 +19813,9 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19378,7 +19852,9 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19415,7 +19891,9 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19452,7 +19930,9 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19489,7 +19969,9 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19526,7 +20008,9 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19563,7 +20047,9 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19600,7 +20086,9 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19637,7 +20125,9 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19674,7 +20164,9 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19711,7 +20203,9 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19748,7 +20242,9 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19785,7 +20281,9 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19822,7 +20320,9 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19859,7 +20359,9 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19896,7 +20398,9 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19933,7 +20437,9 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19970,7 +20476,9 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20007,7 +20515,9 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20044,7 +20554,9 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20081,7 +20593,9 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20118,7 +20632,9 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20155,7 +20671,9 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20192,7 +20710,9 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20229,7 +20749,9 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20266,7 +20788,9 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20303,7 +20827,9 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20340,7 +20866,9 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20377,7 +20905,9 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20414,7 +20944,9 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20451,7 +20983,9 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20488,7 +21022,9 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20525,7 +21061,9 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20562,7 +21100,9 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20599,7 +21139,9 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20636,7 +21178,9 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20673,7 +21217,9 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20710,7 +21256,9 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20747,7 +21295,9 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20784,7 +21334,9 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20821,7 +21373,9 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20858,7 +21412,9 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20895,7 +21451,9 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20932,7 +21490,9 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20969,7 +21529,9 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21006,7 +21568,9 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21043,7 +21607,9 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21080,7 +21646,9 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21117,7 +21685,9 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21154,7 +21724,9 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21191,7 +21763,9 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21228,7 +21802,9 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21265,7 +21841,9 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21302,7 +21880,9 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21339,7 +21919,9 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21376,7 +21958,9 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21413,7 +21997,9 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21450,7 +22036,9 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21487,7 +22075,9 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21524,7 +22114,9 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21561,7 +22153,9 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21598,7 +22192,9 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21635,7 +22231,9 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21672,7 +22270,9 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21709,7 +22309,9 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21746,7 +22348,9 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21783,7 +22387,9 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21820,7 +22426,9 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21857,7 +22465,9 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21894,7 +22504,9 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21931,7 +22543,9 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21968,7 +22582,9 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22005,7 +22621,9 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22042,7 +22660,9 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22079,7 +22699,9 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22116,7 +22738,9 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22153,7 +22777,9 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22190,7 +22816,9 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22227,7 +22855,9 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22264,7 +22894,9 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22301,7 +22933,9 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22338,7 +22972,9 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22375,7 +23011,9 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22412,7 +23050,9 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22449,7 +23089,9 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22486,7 +23128,9 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22523,7 +23167,9 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22560,7 +23206,9 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22597,7 +23245,9 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22634,7 +23284,9 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22671,7 +23323,9 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22708,7 +23362,9 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22745,7 +23401,9 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22782,7 +23440,9 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22819,7 +23479,9 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22856,7 +23518,9 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22893,7 +23557,9 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22930,7 +23596,9 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22967,7 +23635,9 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23004,7 +23674,9 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23041,7 +23713,9 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23078,7 +23752,9 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23115,7 +23791,9 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23152,7 +23830,9 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23189,7 +23869,9 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23226,7 +23908,9 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23263,7 +23947,9 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23300,7 +23986,9 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23337,7 +24025,9 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23374,7 +24064,9 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23411,7 +24103,9 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23448,7 +24142,9 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23485,7 +24181,9 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23522,7 +24220,9 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23559,7 +24259,9 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23596,7 +24298,9 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23633,7 +24337,9 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23670,7 +24376,9 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23707,7 +24415,9 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23744,7 +24454,9 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23781,7 +24493,9 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23818,7 +24532,9 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23855,7 +24571,9 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23892,7 +24610,9 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23929,7 +24649,9 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23966,7 +24688,9 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24003,7 +24727,9 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24040,7 +24766,9 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24077,7 +24805,9 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24114,7 +24844,9 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24151,7 +24883,9 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24188,7 +24922,9 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24225,7 +24961,9 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24262,7 +25000,9 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24299,7 +25039,9 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24336,7 +25078,9 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24373,7 +25117,9 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24410,7 +25156,9 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24447,7 +25195,9 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24484,7 +25234,9 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24521,7 +25273,9 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24558,7 +25312,9 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24595,7 +25351,9 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24632,7 +25390,9 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24669,7 +25429,9 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24706,7 +25468,9 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24743,7 +25507,9 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24780,7 +25546,9 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24817,7 +25585,9 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24854,7 +25624,9 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24891,7 +25663,9 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24928,7 +25702,9 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24965,7 +25741,9 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25002,7 +25780,9 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25039,7 +25819,9 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25076,7 +25858,9 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25113,7 +25897,9 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25150,7 +25936,9 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25187,7 +25975,9 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25224,7 +26014,9 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25261,7 +26053,9 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25298,7 +26092,9 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25335,7 +26131,9 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25372,7 +26170,9 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25409,7 +26209,9 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
+      <c r="J713" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25446,7 +26248,9 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
+      <c r="J714" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25483,7 +26287,9 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25520,7 +26326,9 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25557,7 +26365,9 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25594,7 +26404,9 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25631,7 +26443,9 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
+      <c r="J719" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25668,7 +26482,9 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25705,7 +26521,9 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25742,7 +26560,9 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25779,7 +26599,9 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
+      <c r="J723" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25816,7 +26638,9 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25853,7 +26677,9 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
+      <c r="J725" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25890,7 +26716,9 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
+      <c r="J726" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25927,7 +26755,9 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
+      <c r="J727" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25964,7 +26794,9 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
+      <c r="J728" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26001,7 +26833,9 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
+      <c r="J729" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26038,7 +26872,9 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
+      <c r="J730" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26075,7 +26911,9 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
+      <c r="J731" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26112,7 +26950,9 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
+      <c r="J732" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26149,7 +26989,9 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
+      <c r="J733" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26186,7 +27028,9 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
+      <c r="J734" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26223,7 +27067,9 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
+      <c r="J735" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26260,7 +27106,9 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
+      <c r="J736" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26297,7 +27145,9 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
+      <c r="J737" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26334,7 +27184,9 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
+      <c r="J738" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26371,7 +27223,9 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
+      <c r="J739" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26408,7 +27262,9 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
+      <c r="J740" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26445,7 +27301,9 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
+      <c r="J741" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26482,7 +27340,9 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
+      <c r="J742" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26519,7 +27379,9 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
+      <c r="J743" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26556,7 +27418,9 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
+      <c r="J744" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26593,7 +27457,9 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
+      <c r="J745" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26630,7 +27496,9 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
+      <c r="J746" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26667,7 +27535,9 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
+      <c r="J747" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K747" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26701,16 +27571,20 @@
         <v>-3487687.0061</v>
       </c>
       <c r="H748" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
+      <c r="J748" t="n">
+        <v>1.905</v>
+      </c>
       <c r="K748" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L748" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L748" t="n">
+        <v>1</v>
+      </c>
       <c r="M748" t="inlineStr"/>
     </row>
     <row r="749">
@@ -26739,8 +27613,14 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="J749" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -26769,11 +27649,17 @@
         <v>-3167684.804512314</v>
       </c>
       <c r="H750" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="J750" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -26805,8 +27691,14 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="J751" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -26838,8 +27730,14 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="J752" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -26871,8 +27769,14 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="J753" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -26904,8 +27808,14 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="J754" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -26937,8 +27847,14 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="J755" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -26967,11 +27883,17 @@
         <v>-3130707.376912314</v>
       </c>
       <c r="H756" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="J756" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -27000,11 +27922,17 @@
         <v>-3097010.740012314</v>
       </c>
       <c r="H757" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="J757" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -27033,11 +27961,17 @@
         <v>-3143477.288812314</v>
       </c>
       <c r="H758" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="J758" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -27066,11 +28000,17 @@
         <v>-3098260.820612314</v>
       </c>
       <c r="H759" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -27099,11 +28039,17 @@
         <v>-3164874.266912314</v>
       </c>
       <c r="H760" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="J760" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -27135,8 +28081,14 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="J761" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -27168,8 +28120,14 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="J762" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -27201,8 +28159,14 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="J763" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -27234,8 +28198,14 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="J764" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -27267,8 +28237,14 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="J765" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -27297,11 +28273,17 @@
         <v>-2167924.097112314</v>
       </c>
       <c r="H766" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="J766" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -27333,8 +28315,14 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="J767" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -27363,11 +28351,17 @@
         <v>-2213109.351312314</v>
       </c>
       <c r="H768" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="J768" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -27396,11 +28390,17 @@
         <v>-2173491.115512314</v>
       </c>
       <c r="H769" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="J769" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -27429,11 +28429,17 @@
         <v>-2136862.624912314</v>
       </c>
       <c r="H770" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="J770" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -27462,11 +28468,17 @@
         <v>-2184868.376212314</v>
       </c>
       <c r="H771" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="J771" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -27498,8 +28510,14 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="J772" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -27528,11 +28546,17 @@
         <v>-2107476.323512314</v>
       </c>
       <c r="H773" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="J773" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -27561,13 +28585,19 @@
         <v>-2107476.323512314</v>
       </c>
       <c r="H774" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="J774" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L774" t="n">
-        <v>1</v>
+        <v>1.044343832020997</v>
       </c>
       <c r="M774" t="inlineStr"/>
     </row>
@@ -27594,7 +28624,7 @@
         <v>-2156572.540512315</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -27627,7 +28657,7 @@
         <v>-2111829.842812315</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -27660,7 +28690,7 @@
         <v>-2147961.443412315</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -27693,7 +28723,7 @@
         <v>-2188216.661012315</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -27726,7 +28756,7 @@
         <v>-2152773.520312315</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -27759,7 +28789,7 @@
         <v>-2192075.899212315</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -27792,7 +28822,7 @@
         <v>-2131392.925212315</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -27858,7 +28888,7 @@
         <v>-2240836.948012315</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -27891,7 +28921,7 @@
         <v>-2226650.950312315</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -27924,7 +28954,7 @@
         <v>-2180246.155212314</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -27957,7 +28987,7 @@
         <v>-2222233.732612314</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -27990,7 +29020,7 @@
         <v>-2186463.835712314</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -28023,7 +29053,7 @@
         <v>-1292022.190112314</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -28056,7 +29086,7 @@
         <v>-1048537.709112314</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -28089,7 +29119,7 @@
         <v>-1084125.580612314</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -28122,7 +29152,7 @@
         <v>-1031396.836512314</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -28155,7 +29185,7 @@
         <v>-1081505.039012314</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -28188,7 +29218,7 @@
         <v>-1044591.190512314</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -28221,7 +29251,7 @@
         <v>-1075088.938412314</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -28254,7 +29284,7 @@
         <v>-1108664.488512314</v>
       </c>
       <c r="H795" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -28287,7 +29317,7 @@
         <v>-1060414.289012314</v>
       </c>
       <c r="H796" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -28320,7 +29350,7 @@
         <v>-1022544.304512314</v>
       </c>
       <c r="H797" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -28353,7 +29383,7 @@
         <v>-1041710.782512314</v>
       </c>
       <c r="H798" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -28386,7 +29416,7 @@
         <v>-992623.593912314</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -28419,7 +29449,7 @@
         <v>-1032393.948812314</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -28452,7 +29482,7 @@
         <v>-1000079.065512314</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -28485,7 +29515,7 @@
         <v>-2084540.884512314</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -28518,7 +29548,7 @@
         <v>-2600664.447712314</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -28551,7 +29581,7 @@
         <v>-1825533.308912314</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -28584,7 +29614,7 @@
         <v>-1803262.307912315</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -28617,7 +29647,7 @@
         <v>-1845292.772512315</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -28650,7 +29680,7 @@
         <v>-1801911.823912315</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -28683,7 +29713,7 @@
         <v>-1757153.764912315</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -28716,7 +29746,7 @@
         <v>-1711227.940012315</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -28749,7 +29779,7 @@
         <v>-1711227.940012315</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -28782,7 +29812,7 @@
         <v>-1751018.053112315</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -28815,7 +29845,7 @@
         <v>-1790119.407112315</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -28848,7 +29878,7 @@
         <v>-1751025.385312315</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -28881,7 +29911,7 @@
         <v>-1787011.478212315</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -28914,7 +29944,7 @@
         <v>-1787011.478212315</v>
       </c>
       <c r="H815" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -28947,7 +29977,7 @@
         <v>-1833352.130812315</v>
       </c>
       <c r="H816" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -28980,7 +30010,7 @@
         <v>-1775146.153512315</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -29013,7 +30043,7 @@
         <v>-1822527.841112315</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -29046,7 +30076,7 @@
         <v>-1854280.035812315</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -29079,7 +30109,7 @@
         <v>-1811497.332212315</v>
       </c>
       <c r="H820" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -29112,7 +30142,7 @@
         <v>-1771683.193812315</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -29145,7 +30175,7 @@
         <v>-1790642.926712315</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -29178,7 +30208,7 @@
         <v>-1749816.453812315</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -29211,7 +30241,7 @@
         <v>-1821396.779112315</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -29244,7 +30274,7 @@
         <v>-1783052.280612315</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -29277,7 +30307,7 @@
         <v>-1822987.211612315</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -29310,7 +30340,7 @@
         <v>-1810462.758212315</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -29343,7 +30373,7 @@
         <v>-1772773.268512315</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -29376,7 +30406,7 @@
         <v>-1816752.634012315</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -29409,7 +30439,7 @@
         <v>-1765660.915312315</v>
       </c>
       <c r="H830" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -29442,7 +30472,7 @@
         <v>-1799822.456212315</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -29475,7 +30505,7 @@
         <v>-1764161.443912315</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -29508,7 +30538,7 @@
         <v>-1805698.130412315</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -29541,7 +30571,7 @@
         <v>-1765073.994412315</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -29574,7 +30604,7 @@
         <v>-1723651.619512315</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -29607,7 +30637,7 @@
         <v>-1696772.266312315</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -29640,7 +30670,7 @@
         <v>-1737768.794412315</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -29673,7 +30703,7 @@
         <v>-1783107.205912315</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -29706,7 +30736,7 @@
         <v>-1753068.679212315</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -29739,7 +30769,7 @@
         <v>-1753068.679212315</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -29772,7 +30802,7 @@
         <v>-1788729.672412315</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -29805,7 +30835,7 @@
         <v>-1740103.483412315</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -29838,7 +30868,7 @@
         <v>-1761229.880012315</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -29871,7 +30901,7 @@
         <v>-1761229.880012315</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -29904,7 +30934,7 @@
         <v>-1804388.153712315</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -29937,7 +30967,7 @@
         <v>-1743908.653512315</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -29970,7 +31000,7 @@
         <v>-1770476.389012315</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -30003,7 +31033,7 @@
         <v>-1725832.531312315</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -30036,7 +31066,7 @@
         <v>-1777405.092512315</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -30069,7 +31099,7 @@
         <v>-1733800.617912315</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -30102,7 +31132,7 @@
         <v>-1759073.355612315</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -30168,7 +31198,7 @@
         <v>-1714104.291912315</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -30234,7 +31264,7 @@
         <v>-1731154.312512315</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -30267,7 +31297,7 @@
         <v>-1766419.043212315</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -30300,7 +31330,7 @@
         <v>-1806206.700112315</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -30333,7 +31363,7 @@
         <v>-1766757.860512315</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -30366,7 +31396,7 @@
         <v>-1715619.043712315</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -30399,7 +31429,7 @@
         <v>-1766658.103112315</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -30465,7 +31495,7 @@
         <v>-1685399.417212315</v>
       </c>
       <c r="H862" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -30498,7 +31528,7 @@
         <v>-1662436.303912315</v>
       </c>
       <c r="H863" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -30597,7 +31627,7 @@
         <v>-1692413.317712315</v>
       </c>
       <c r="H866" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -30729,7 +31759,7 @@
         <v>-1666019.779712315</v>
       </c>
       <c r="H870" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -30861,7 +31891,7 @@
         <v>-1644051.254412315</v>
       </c>
       <c r="H874" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -32214,7 +33244,7 @@
         <v>-1676422.274512315</v>
       </c>
       <c r="H915" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -32247,7 +33277,7 @@
         <v>-1637222.584112315</v>
       </c>
       <c r="H916" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -32280,7 +33310,7 @@
         <v>-1747144.641512315</v>
       </c>
       <c r="H917" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -32313,7 +33343,7 @@
         <v>-1701020.352412315</v>
       </c>
       <c r="H918" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -32346,7 +33376,7 @@
         <v>-1685751.715412315</v>
       </c>
       <c r="H919" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -32445,7 +33475,7 @@
         <v>-1715133.775712315</v>
       </c>
       <c r="H922" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -32478,7 +33508,7 @@
         <v>-1756357.282812315</v>
       </c>
       <c r="H923" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -32511,7 +33541,7 @@
         <v>-1720614.741012315</v>
       </c>
       <c r="H924" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -32544,7 +33574,7 @@
         <v>-1511226.055612315</v>
       </c>
       <c r="H925" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -32577,7 +33607,7 @@
         <v>-1488833.734512315</v>
       </c>
       <c r="H926" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -32610,7 +33640,7 @@
         <v>-1529433.904212315</v>
       </c>
       <c r="H927" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -32643,7 +33673,7 @@
         <v>-1488958.477712315</v>
       </c>
       <c r="H928" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -32676,7 +33706,7 @@
         <v>-1532284.396912315</v>
       </c>
       <c r="H929" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -32709,7 +33739,7 @@
         <v>-1488880.109612315</v>
       </c>
       <c r="H930" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -32742,7 +33772,7 @@
         <v>-1538950.807212315</v>
       </c>
       <c r="H931" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -32775,7 +33805,7 @@
         <v>-1491073.916812315</v>
       </c>
       <c r="H932" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -32808,7 +33838,7 @@
         <v>-1491073.916812315</v>
       </c>
       <c r="H933" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -32841,7 +33871,7 @@
         <v>-1537574.683112315</v>
       </c>
       <c r="H934" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -32874,7 +33904,7 @@
         <v>-1504468.168812315</v>
       </c>
       <c r="H935" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -32907,7 +33937,7 @@
         <v>-1524281.551112315</v>
       </c>
       <c r="H936" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -32940,7 +33970,7 @@
         <v>-1594506.973712315</v>
       </c>
       <c r="H937" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -32973,7 +34003,7 @@
         <v>-1554385.023212315</v>
       </c>
       <c r="H938" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -33006,7 +34036,7 @@
         <v>-1571368.995012315</v>
       </c>
       <c r="H939" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -33039,7 +34069,7 @@
         <v>-1544943.046612315</v>
       </c>
       <c r="H940" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -33072,7 +34102,7 @@
         <v>-1518413.679912315</v>
       </c>
       <c r="H941" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -33105,7 +34135,7 @@
         <v>-1552875.470012315</v>
       </c>
       <c r="H942" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -33138,7 +34168,7 @@
         <v>-1511346.038312315</v>
       </c>
       <c r="H943" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -33171,7 +34201,7 @@
         <v>-1470028.137212315</v>
       </c>
       <c r="H944" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -33204,7 +34234,7 @@
         <v>-1458679.181612315</v>
       </c>
       <c r="H945" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -33237,7 +34267,7 @@
         <v>-1503255.368012315</v>
       </c>
       <c r="H946" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -33270,7 +34300,7 @@
         <v>-1454142.725812315</v>
       </c>
       <c r="H947" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -33303,7 +34333,7 @@
         <v>-1454142.725812315</v>
       </c>
       <c r="H948" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -33336,7 +34366,7 @@
         <v>-1468200.748512315</v>
       </c>
       <c r="H949" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -33369,7 +34399,7 @@
         <v>-1432091.145012315</v>
       </c>
       <c r="H950" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -33402,7 +34432,7 @@
         <v>-1521049.547712315</v>
       </c>
       <c r="H951" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -33435,7 +34465,7 @@
         <v>-1477789.316812315</v>
       </c>
       <c r="H952" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -33468,7 +34498,7 @@
         <v>-1547751.551912315</v>
       </c>
       <c r="H953" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -33501,7 +34531,7 @@
         <v>-1501279.244712315</v>
       </c>
       <c r="H954" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -33534,7 +34564,7 @@
         <v>-1550810.947112315</v>
       </c>
       <c r="H955" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -33567,7 +34597,7 @@
         <v>-1550810.947112315</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -33600,7 +34630,7 @@
         <v>-1625988.775412315</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -33633,7 +34663,7 @@
         <v>-1592498.423312315</v>
       </c>
       <c r="H958" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -33666,7 +34696,7 @@
         <v>-1646000.790212315</v>
       </c>
       <c r="H959" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -33699,7 +34729,7 @@
         <v>-1625445.594612315</v>
       </c>
       <c r="H960" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -33732,7 +34762,7 @@
         <v>-1625445.594612315</v>
       </c>
       <c r="H961" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -33765,7 +34795,7 @@
         <v>-1589945.978012315</v>
       </c>
       <c r="H962" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -33798,7 +34828,7 @@
         <v>-1589945.978012315</v>
       </c>
       <c r="H963" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -33831,7 +34861,7 @@
         <v>-1589945.978012315</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -33864,7 +34894,7 @@
         <v>-1624155.957112315</v>
       </c>
       <c r="H965" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -33897,7 +34927,7 @@
         <v>-1568442.766612315</v>
       </c>
       <c r="H966" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -33930,7 +34960,7 @@
         <v>-1529300.980312315</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -33963,7 +34993,7 @@
         <v>-1560819.090512315</v>
       </c>
       <c r="H968" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -33996,7 +35026,7 @@
         <v>-1520556.999912315</v>
       </c>
       <c r="H969" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -34029,7 +35059,7 @@
         <v>-1463173.165012315</v>
       </c>
       <c r="H970" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -34062,7 +35092,7 @@
         <v>-1497438.829412315</v>
       </c>
       <c r="H971" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -34095,7 +35125,7 @@
         <v>-1442776.451012315</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -34128,7 +35158,7 @@
         <v>-1442776.451012315</v>
       </c>
       <c r="H973" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -34161,7 +35191,7 @@
         <v>-1478597.211612315</v>
       </c>
       <c r="H974" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -34194,7 +35224,7 @@
         <v>-1450107.722512315</v>
       </c>
       <c r="H975" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -34227,7 +35257,7 @@
         <v>-1435076.513012315</v>
       </c>
       <c r="H976" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -34260,7 +35290,7 @@
         <v>-1394238.403812315</v>
       </c>
       <c r="H977" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -34293,7 +35323,7 @@
         <v>-1448496.514212315</v>
       </c>
       <c r="H978" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -34326,7 +35356,7 @@
         <v>-1587958.205612315</v>
       </c>
       <c r="H979" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -34359,7 +35389,7 @@
         <v>-1705494.318312315</v>
       </c>
       <c r="H980" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -34392,7 +35422,7 @@
         <v>-1787367.662612315</v>
       </c>
       <c r="H981" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -34425,7 +35455,7 @@
         <v>-1663706.771812315</v>
       </c>
       <c r="H982" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -34458,7 +35488,7 @@
         <v>-1583264.386612315</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -34491,7 +35521,7 @@
         <v>-1629414.499812315</v>
       </c>
       <c r="H984" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -34524,7 +35554,7 @@
         <v>-1666512.222412315</v>
       </c>
       <c r="H985" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -34557,7 +35587,7 @@
         <v>-1623834.979712315</v>
       </c>
       <c r="H986" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -34590,7 +35620,7 @@
         <v>-1576964.059812315</v>
       </c>
       <c r="H987" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -34623,7 +35653,7 @@
         <v>-1603543.454312315</v>
       </c>
       <c r="H988" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -34656,7 +35686,7 @@
         <v>-1493041.446112315</v>
       </c>
       <c r="H989" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -34689,7 +35719,7 @@
         <v>-1540081.396612315</v>
       </c>
       <c r="H990" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -34722,7 +35752,7 @@
         <v>-1583664.161612315</v>
       </c>
       <c r="H991" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -34755,7 +35785,7 @@
         <v>-1549174.133512315</v>
       </c>
       <c r="H992" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -34788,7 +35818,7 @@
         <v>-1549174.133512315</v>
       </c>
       <c r="H993" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -34821,7 +35851,7 @@
         <v>-1569611.970312315</v>
       </c>
       <c r="H994" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -34854,7 +35884,7 @@
         <v>-1528903.583012315</v>
       </c>
       <c r="H995" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -34887,7 +35917,7 @@
         <v>-1479314.457312315</v>
       </c>
       <c r="H996" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -34920,7 +35950,7 @@
         <v>-1521397.720612315</v>
       </c>
       <c r="H997" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -34953,7 +35983,7 @@
         <v>-1475636.110412315</v>
       </c>
       <c r="H998" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -34986,7 +36016,7 @@
         <v>-1475636.110412315</v>
       </c>
       <c r="H999" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -35019,7 +36049,7 @@
         <v>-1501828.810412314</v>
       </c>
       <c r="H1000" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -35052,7 +36082,7 @@
         <v>-1562217.898412314</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -35184,7 +36214,7 @@
         <v>-1536800.161312314</v>
       </c>
       <c r="H1005" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -35217,7 +36247,7 @@
         <v>-1536800.161312314</v>
       </c>
       <c r="H1006" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -35250,7 +36280,7 @@
         <v>-1536800.161312314</v>
       </c>
       <c r="H1007" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -35283,7 +36313,7 @@
         <v>-1576950.539912314</v>
       </c>
       <c r="H1008" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -35316,7 +36346,7 @@
         <v>-1533077.031912314</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -35349,7 +36379,7 @@
         <v>-1509902.835012314</v>
       </c>
       <c r="H1010" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -35382,7 +36412,7 @@
         <v>-1462427.156212314</v>
       </c>
       <c r="H1011" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -35415,7 +36445,7 @@
         <v>-1505085.298812314</v>
       </c>
       <c r="H1012" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -35448,7 +36478,7 @@
         <v>-1467666.806212314</v>
       </c>
       <c r="H1013" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -35481,7 +36511,7 @@
         <v>-1498733.496612314</v>
       </c>
       <c r="H1014" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -35514,7 +36544,7 @@
         <v>-1450348.044212314</v>
       </c>
       <c r="H1015" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -35547,7 +36577,7 @@
         <v>-1472994.971312314</v>
       </c>
       <c r="H1016" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -35580,7 +36610,7 @@
         <v>-1472994.971312314</v>
       </c>
       <c r="H1017" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -35613,7 +36643,7 @@
         <v>-1472994.971312314</v>
       </c>
       <c r="H1018" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -35646,7 +36676,7 @@
         <v>-1517185.050112314</v>
       </c>
       <c r="H1019" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -35679,7 +36709,7 @@
         <v>-1473997.475412314</v>
       </c>
       <c r="H1020" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -35778,7 +36808,7 @@
         <v>-1461590.411712314</v>
       </c>
       <c r="H1023" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
@@ -35811,7 +36841,7 @@
         <v>-1503266.960112314</v>
       </c>
       <c r="H1024" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -35844,7 +36874,7 @@
         <v>-1552386.842112314</v>
       </c>
       <c r="H1025" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -35877,7 +36907,7 @@
         <v>-1528081.810612314</v>
       </c>
       <c r="H1026" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -35910,7 +36940,7 @@
         <v>-1479541.440212314</v>
       </c>
       <c r="H1027" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -35943,7 +36973,7 @@
         <v>-1479541.440212314</v>
       </c>
       <c r="H1028" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -35976,7 +37006,7 @@
         <v>-1426940.559812314</v>
       </c>
       <c r="H1029" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -36075,7 +37105,7 @@
         <v>-1540082.012512314</v>
       </c>
       <c r="H1032" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -36108,7 +37138,7 @@
         <v>-1540082.012512314</v>
       </c>
       <c r="H1033" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -36141,7 +37171,7 @@
         <v>-1540082.012512314</v>
       </c>
       <c r="H1034" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -36174,7 +37204,7 @@
         <v>-1579091.681012314</v>
       </c>
       <c r="H1035" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -36207,7 +37237,7 @@
         <v>-1535151.926712314</v>
       </c>
       <c r="H1036" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -36240,7 +37270,7 @@
         <v>-1575131.559112314</v>
       </c>
       <c r="H1037" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -36273,7 +37303,7 @@
         <v>-1575131.559112314</v>
       </c>
       <c r="H1038" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -36306,7 +37336,7 @@
         <v>-1621011.199012314</v>
       </c>
       <c r="H1039" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -36339,7 +37369,7 @@
         <v>-1660883.732912314</v>
       </c>
       <c r="H1040" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
@@ -36372,7 +37402,7 @@
         <v>-1614596.727412314</v>
       </c>
       <c r="H1041" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -36405,7 +37435,7 @@
         <v>-1566491.356012314</v>
       </c>
       <c r="H1042" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -36438,7 +37468,7 @@
         <v>-1584709.025412314</v>
       </c>
       <c r="H1043" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -36471,7 +37501,7 @@
         <v>-1538180.696912314</v>
       </c>
       <c r="H1044" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -36504,7 +37534,7 @@
         <v>-1538180.696912314</v>
       </c>
       <c r="H1045" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -36537,7 +37567,7 @@
         <v>-1487188.544912314</v>
       </c>
       <c r="H1046" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
@@ -36570,7 +37600,7 @@
         <v>-1506589.048012314</v>
       </c>
       <c r="H1047" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
@@ -36603,7 +37633,7 @@
         <v>-1565003.729912314</v>
       </c>
       <c r="H1048" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
@@ -36636,7 +37666,7 @@
         <v>-1551472.628212314</v>
       </c>
       <c r="H1049" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
@@ -36669,7 +37699,7 @@
         <v>-1593311.681312314</v>
       </c>
       <c r="H1050" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
@@ -36702,7 +37732,7 @@
         <v>-1664648.380812314</v>
       </c>
       <c r="H1051" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
@@ -36735,7 +37765,7 @@
         <v>-1644060.271312314</v>
       </c>
       <c r="H1052" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
@@ -36768,7 +37798,7 @@
         <v>-1682106.037712314</v>
       </c>
       <c r="H1053" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
@@ -36801,7 +37831,7 @@
         <v>-1637749.444812314</v>
       </c>
       <c r="H1054" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
@@ -36834,7 +37864,7 @@
         <v>-1678683.535512314</v>
       </c>
       <c r="H1055" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
@@ -36867,7 +37897,7 @@
         <v>-1656424.032912314</v>
       </c>
       <c r="H1056" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
@@ -36900,7 +37930,7 @@
         <v>-1612079.483112314</v>
       </c>
       <c r="H1057" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
@@ -36933,7 +37963,7 @@
         <v>-1645472.803612314</v>
       </c>
       <c r="H1058" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
@@ -36966,7 +37996,7 @@
         <v>-1668908.714412314</v>
       </c>
       <c r="H1059" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
@@ -36999,7 +38029,7 @@
         <v>-1703313.094312314</v>
       </c>
       <c r="H1060" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
@@ -37032,7 +38062,7 @@
         <v>-1648744.804912314</v>
       </c>
       <c r="H1061" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
@@ -37065,7 +38095,7 @@
         <v>-1264573.314412314</v>
       </c>
       <c r="H1062" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
@@ -37098,7 +38128,7 @@
         <v>-1309308.394412314</v>
       </c>
       <c r="H1063" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
@@ -37131,7 +38161,7 @@
         <v>-1273116.893912314</v>
       </c>
       <c r="H1064" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
@@ -37164,7 +38194,7 @@
         <v>-1342010.886112314</v>
       </c>
       <c r="H1065" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
@@ -37197,7 +38227,7 @@
         <v>-1298577.788612314</v>
       </c>
       <c r="H1066" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
@@ -37230,7 +38260,7 @@
         <v>-1337246.430212314</v>
       </c>
       <c r="H1067" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
@@ -37263,7 +38293,7 @@
         <v>-1296073.451812314</v>
       </c>
       <c r="H1068" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
@@ -37296,7 +38326,7 @@
         <v>-1338202.513912314</v>
       </c>
       <c r="H1069" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
@@ -37329,7 +38359,7 @@
         <v>-1338202.513912314</v>
       </c>
       <c r="H1070" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
@@ -37362,7 +38392,7 @@
         <v>-1290788.758112314</v>
       </c>
       <c r="H1071" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
@@ -37395,7 +38425,7 @@
         <v>-1290788.758112314</v>
       </c>
       <c r="H1072" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
@@ -37428,7 +38458,7 @@
         <v>-944662.2887123143</v>
       </c>
       <c r="H1073" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
@@ -37461,7 +38491,7 @@
         <v>-944662.2887123143</v>
       </c>
       <c r="H1074" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
@@ -37494,7 +38524,7 @@
         <v>-892538.4424123144</v>
       </c>
       <c r="H1075" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
@@ -37527,7 +38557,7 @@
         <v>-920593.4580123144</v>
       </c>
       <c r="H1076" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
@@ -37560,7 +38590,7 @@
         <v>-876406.2691123144</v>
       </c>
       <c r="H1077" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
@@ -37593,7 +38623,7 @@
         <v>-917146.8187123145</v>
       </c>
       <c r="H1078" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
@@ -37626,7 +38656,7 @@
         <v>-1012025.241612314</v>
       </c>
       <c r="H1079" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
@@ -37659,7 +38689,7 @@
         <v>-1112848.420612314</v>
       </c>
       <c r="H1080" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
@@ -37692,7 +38722,7 @@
         <v>-1068897.855112314</v>
       </c>
       <c r="H1081" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
@@ -37725,7 +38755,7 @@
         <v>-1125162.639012314</v>
       </c>
       <c r="H1082" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
@@ -37758,7 +38788,7 @@
         <v>-1087398.195512314</v>
       </c>
       <c r="H1083" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
@@ -37791,7 +38821,7 @@
         <v>-1130270.313512314</v>
       </c>
       <c r="H1084" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
@@ -37824,7 +38854,7 @@
         <v>-1082652.448612314</v>
       </c>
       <c r="H1085" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
@@ -37857,7 +38887,7 @@
         <v>-1128020.454812314</v>
       </c>
       <c r="H1086" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
@@ -37890,7 +38920,7 @@
         <v>-1146792.500612314</v>
       </c>
       <c r="H1087" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
@@ -37923,7 +38953,7 @@
         <v>-1100028.783612314</v>
       </c>
       <c r="H1088" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
@@ -37956,7 +38986,7 @@
         <v>-1164240.477412314</v>
       </c>
       <c r="H1089" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
@@ -37989,7 +39019,7 @@
         <v>-1215777.511712314</v>
       </c>
       <c r="H1090" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="inlineStr"/>
@@ -38022,7 +39052,7 @@
         <v>-1311958.759812314</v>
       </c>
       <c r="H1091" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
@@ -38055,7 +39085,7 @@
         <v>-1299943.759812314</v>
       </c>
       <c r="H1092" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
@@ -38088,7 +39118,7 @@
         <v>-1400194.386412314</v>
       </c>
       <c r="H1093" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
@@ -38121,7 +39151,7 @@
         <v>-1400194.386412314</v>
       </c>
       <c r="H1094" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
@@ -38154,7 +39184,7 @@
         <v>-1400194.386412314</v>
       </c>
       <c r="H1095" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
@@ -38187,7 +39217,7 @@
         <v>-1352649.176412314</v>
       </c>
       <c r="H1096" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
@@ -38220,7 +39250,7 @@
         <v>-1404166.073512314</v>
       </c>
       <c r="H1097" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
@@ -38253,7 +39283,7 @@
         <v>-1447057.945212314</v>
       </c>
       <c r="H1098" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
@@ -38286,7 +39316,7 @@
         <v>-1486857.295212314</v>
       </c>
       <c r="H1099" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
@@ -38319,7 +39349,7 @@
         <v>-1449188.065912314</v>
       </c>
       <c r="H1100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
@@ -38352,7 +39382,7 @@
         <v>-1424571.609412314</v>
       </c>
       <c r="H1101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
@@ -38385,7 +39415,7 @@
         <v>-1469859.165912314</v>
       </c>
       <c r="H1102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
@@ -38418,7 +39448,7 @@
         <v>-1393120.490112314</v>
       </c>
       <c r="H1103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
@@ -38451,7 +39481,7 @@
         <v>-1393120.490112314</v>
       </c>
       <c r="H1104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
@@ -38484,7 +39514,7 @@
         <v>-1484397.007012314</v>
       </c>
       <c r="H1105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
@@ -38517,7 +39547,7 @@
         <v>-1705581.977412314</v>
       </c>
       <c r="H1106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
@@ -38550,7 +39580,7 @@
         <v>-1666683.843512314</v>
       </c>
       <c r="H1107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
@@ -38583,7 +39613,7 @@
         <v>-1633295.525412314</v>
       </c>
       <c r="H1108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
@@ -38616,7 +39646,7 @@
         <v>-1674116.021812314</v>
       </c>
       <c r="H1109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
@@ -38649,7 +39679,7 @@
         <v>-1694780.231912314</v>
       </c>
       <c r="H1110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
@@ -38682,7 +39712,7 @@
         <v>-1630125.899212314</v>
       </c>
       <c r="H1111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
@@ -38715,7 +39745,7 @@
         <v>-1676801.012512314</v>
       </c>
       <c r="H1112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="inlineStr"/>
@@ -38748,7 +39778,7 @@
         <v>-2106106.774712314</v>
       </c>
       <c r="H1113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
@@ -38781,7 +39811,7 @@
         <v>-2064677.523512314</v>
       </c>
       <c r="H1114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
@@ -38814,7 +39844,7 @@
         <v>-2097801.651812315</v>
       </c>
       <c r="H1115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="inlineStr"/>
@@ -38847,7 +39877,7 @@
         <v>-2058574.587112315</v>
       </c>
       <c r="H1116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="inlineStr"/>
@@ -38880,7 +39910,7 @@
         <v>-2100844.628312314</v>
       </c>
       <c r="H1117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
@@ -38913,7 +39943,7 @@
         <v>-2134333.182312314</v>
       </c>
       <c r="H1118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="inlineStr"/>
@@ -38946,7 +39976,7 @@
         <v>-2186634.309912314</v>
       </c>
       <c r="H1119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="inlineStr"/>
@@ -38979,7 +40009,7 @@
         <v>-2216444.690812314</v>
       </c>
       <c r="H1120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1120" t="inlineStr"/>
       <c r="J1120" t="inlineStr"/>
@@ -39012,7 +40042,7 @@
         <v>-2166328.446612314</v>
       </c>
       <c r="H1121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1121" t="inlineStr"/>
       <c r="J1121" t="inlineStr"/>
@@ -39045,7 +40075,7 @@
         <v>-2207261.109012314</v>
       </c>
       <c r="H1122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="inlineStr"/>
@@ -39078,7 +40108,7 @@
         <v>-2161731.587112314</v>
       </c>
       <c r="H1123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1123" t="inlineStr"/>
       <c r="J1123" t="inlineStr"/>
@@ -39111,7 +40141,7 @@
         <v>-2312035.741512314</v>
       </c>
       <c r="H1124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1124" t="inlineStr"/>
       <c r="J1124" t="inlineStr"/>
@@ -39144,7 +40174,7 @@
         <v>-2270697.792712314</v>
       </c>
       <c r="H1125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="inlineStr"/>
@@ -39177,7 +40207,7 @@
         <v>-2230584.433212314</v>
       </c>
       <c r="H1126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1126" t="inlineStr"/>
       <c r="J1126" t="inlineStr"/>
@@ -39210,7 +40240,7 @@
         <v>-2269213.840012314</v>
       </c>
       <c r="H1127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="inlineStr"/>
@@ -39243,7 +40273,7 @@
         <v>-2269213.840012314</v>
       </c>
       <c r="H1128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
@@ -39276,7 +40306,7 @@
         <v>-2617673.790012314</v>
       </c>
       <c r="H1129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="inlineStr"/>
@@ -39309,7 +40339,7 @@
         <v>-2665821.349612314</v>
       </c>
       <c r="H1130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="inlineStr"/>
@@ -39342,7 +40372,7 @@
         <v>-2619827.857312314</v>
       </c>
       <c r="H1131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="inlineStr"/>
@@ -39375,7 +40405,7 @@
         <v>-2656575.261412314</v>
       </c>
       <c r="H1132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="inlineStr"/>
@@ -39408,7 +40438,7 @@
         <v>-2609686.928712314</v>
       </c>
       <c r="H1133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="inlineStr"/>
@@ -39441,7 +40471,7 @@
         <v>-2634430.704112314</v>
       </c>
       <c r="H1134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="inlineStr"/>
@@ -39474,7 +40504,7 @@
         <v>-2594487.209712314</v>
       </c>
       <c r="H1135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="inlineStr"/>
@@ -39507,7 +40537,7 @@
         <v>-2635092.687312314</v>
       </c>
       <c r="H1136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
@@ -39540,7 +40570,7 @@
         <v>-2597565.435312314</v>
       </c>
       <c r="H1137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="inlineStr"/>
@@ -39573,7 +40603,7 @@
         <v>-2670621.875312314</v>
       </c>
       <c r="H1138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
@@ -39606,7 +40636,7 @@
         <v>-2698096.369012314</v>
       </c>
       <c r="H1139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="inlineStr"/>
@@ -39639,7 +40669,7 @@
         <v>-2698096.369012314</v>
       </c>
       <c r="H1140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
@@ -39672,7 +40702,7 @@
         <v>-2642642.196312314</v>
       </c>
       <c r="H1141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1141" t="inlineStr"/>
       <c r="J1141" t="inlineStr"/>
@@ -39771,7 +40801,7 @@
         <v>-2714599.597712314</v>
       </c>
       <c r="H1144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1144" t="inlineStr"/>
       <c r="J1144" t="inlineStr"/>
@@ -39804,7 +40834,7 @@
         <v>-2669723.544612314</v>
       </c>
       <c r="H1145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="inlineStr"/>
@@ -39837,7 +40867,7 @@
         <v>-2697464.970212314</v>
       </c>
       <c r="H1146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="inlineStr"/>
@@ -39870,7 +40900,7 @@
         <v>-2645440.747312314</v>
       </c>
       <c r="H1147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1147" t="inlineStr"/>
       <c r="J1147" t="inlineStr"/>
@@ -39903,7 +40933,7 @@
         <v>-2693376.033012314</v>
       </c>
       <c r="H1148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1148" t="inlineStr"/>
       <c r="J1148" t="inlineStr"/>
@@ -40002,7 +41032,7 @@
         <v>-2528164.437812314</v>
       </c>
       <c r="H1151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1151" t="inlineStr"/>
       <c r="J1151" t="inlineStr"/>
@@ -40035,7 +41065,7 @@
         <v>-2542570.934312314</v>
       </c>
       <c r="H1152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1152" t="inlineStr"/>
       <c r="J1152" t="inlineStr"/>
@@ -40299,7 +41329,7 @@
         <v>-3091274.618512314</v>
       </c>
       <c r="H1160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1160" t="inlineStr"/>
       <c r="J1160" t="inlineStr"/>
@@ -41223,10 +42253,14 @@
         <v>-5447408.369412314</v>
       </c>
       <c r="H1188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1188" t="inlineStr"/>
-      <c r="J1188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="J1188" t="n">
+        <v>1.904</v>
+      </c>
       <c r="K1188" t="inlineStr"/>
       <c r="L1188" t="n">
         <v>1</v>
@@ -41256,11 +42290,19 @@
         <v>-5491675.961612314</v>
       </c>
       <c r="H1189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1189" t="inlineStr"/>
-      <c r="J1189" t="inlineStr"/>
-      <c r="K1189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1189" t="n">
+        <v>1.913</v>
+      </c>
+      <c r="J1189" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="K1189" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1189" t="n">
         <v>1</v>
       </c>
@@ -41289,11 +42331,19 @@
         <v>-5546566.967112314</v>
       </c>
       <c r="H1190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1190" t="inlineStr"/>
-      <c r="J1190" t="inlineStr"/>
-      <c r="K1190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1190" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="J1190" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="K1190" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1190" t="n">
         <v>1</v>
       </c>
@@ -41322,15 +42372,19 @@
         <v>-5506070.048712314</v>
       </c>
       <c r="H1191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1191" t="n">
         <v>1.907</v>
       </c>
       <c r="J1191" t="n">
-        <v>1.907</v>
-      </c>
-      <c r="K1191" t="inlineStr"/>
+        <v>1.904</v>
+      </c>
+      <c r="K1191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1191" t="n">
         <v>1</v>
       </c>
@@ -41359,15 +42413,17 @@
         <v>-5530310.127412315</v>
       </c>
       <c r="H1192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1192" t="n">
+        <v>1.916</v>
+      </c>
       <c r="J1192" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1192" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1192" t="n">
@@ -41398,15 +42454,17 @@
         <v>-5593612.288412315</v>
       </c>
       <c r="H1193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1193" t="n">
+        <v>1.915</v>
+      </c>
       <c r="J1193" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1193" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1193" t="n">
@@ -41437,11 +42495,13 @@
         <v>-5553919.570412314</v>
       </c>
       <c r="H1194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1194" t="n">
+        <v>1.906</v>
+      </c>
       <c r="J1194" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1194" t="inlineStr">
         <is>
@@ -41476,11 +42536,13 @@
         <v>-5597158.855112314</v>
       </c>
       <c r="H1195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1195" t="n">
+        <v>1.908</v>
+      </c>
       <c r="J1195" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1195" t="inlineStr">
         <is>
@@ -41515,11 +42577,13 @@
         <v>-5582589.068312314</v>
       </c>
       <c r="H1196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1196" t="n">
+        <v>1.903</v>
+      </c>
       <c r="J1196" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1196" t="inlineStr">
         <is>
@@ -41554,11 +42618,13 @@
         <v>-5357127.430312314</v>
       </c>
       <c r="H1197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1197" t="n">
+        <v>1.911</v>
+      </c>
       <c r="J1197" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1197" t="inlineStr">
         <is>
@@ -41597,7 +42663,7 @@
       </c>
       <c r="I1198" t="inlineStr"/>
       <c r="J1198" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1198" t="inlineStr">
         <is>
@@ -41636,7 +42702,7 @@
       </c>
       <c r="I1199" t="inlineStr"/>
       <c r="J1199" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1199" t="inlineStr">
         <is>
@@ -41675,7 +42741,7 @@
       </c>
       <c r="I1200" t="inlineStr"/>
       <c r="J1200" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1200" t="inlineStr">
         <is>
@@ -41714,7 +42780,7 @@
       </c>
       <c r="I1201" t="inlineStr"/>
       <c r="J1201" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1201" t="inlineStr">
         <is>
@@ -41753,7 +42819,7 @@
       </c>
       <c r="I1202" t="inlineStr"/>
       <c r="J1202" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1202" t="inlineStr">
         <is>
@@ -41792,7 +42858,7 @@
       </c>
       <c r="I1203" t="inlineStr"/>
       <c r="J1203" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1203" t="inlineStr">
         <is>
@@ -41831,7 +42897,7 @@
       </c>
       <c r="I1204" t="inlineStr"/>
       <c r="J1204" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1204" t="inlineStr">
         <is>
@@ -41870,7 +42936,7 @@
       </c>
       <c r="I1205" t="inlineStr"/>
       <c r="J1205" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1205" t="inlineStr">
         <is>
@@ -41909,7 +42975,7 @@
       </c>
       <c r="I1206" t="inlineStr"/>
       <c r="J1206" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1206" t="inlineStr">
         <is>
@@ -41948,7 +43014,7 @@
       </c>
       <c r="I1207" t="inlineStr"/>
       <c r="J1207" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1207" t="inlineStr">
         <is>
@@ -41987,7 +43053,7 @@
       </c>
       <c r="I1208" t="inlineStr"/>
       <c r="J1208" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1208" t="inlineStr">
         <is>
@@ -42026,7 +43092,7 @@
       </c>
       <c r="I1209" t="inlineStr"/>
       <c r="J1209" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1209" t="inlineStr">
         <is>
@@ -42065,7 +43131,7 @@
       </c>
       <c r="I1210" t="inlineStr"/>
       <c r="J1210" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1210" t="inlineStr">
         <is>
@@ -42104,7 +43170,7 @@
       </c>
       <c r="I1211" t="inlineStr"/>
       <c r="J1211" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1211" t="inlineStr">
         <is>
@@ -42143,7 +43209,7 @@
       </c>
       <c r="I1212" t="inlineStr"/>
       <c r="J1212" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1212" t="inlineStr">
         <is>
@@ -42182,7 +43248,7 @@
       </c>
       <c r="I1213" t="inlineStr"/>
       <c r="J1213" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1213" t="inlineStr">
         <is>
@@ -42221,7 +43287,7 @@
       </c>
       <c r="I1214" t="inlineStr"/>
       <c r="J1214" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1214" t="inlineStr">
         <is>
@@ -42260,7 +43326,7 @@
       </c>
       <c r="I1215" t="inlineStr"/>
       <c r="J1215" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1215" t="inlineStr">
         <is>
@@ -42299,7 +43365,7 @@
       </c>
       <c r="I1216" t="inlineStr"/>
       <c r="J1216" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1216" t="inlineStr">
         <is>
@@ -42338,7 +43404,7 @@
       </c>
       <c r="I1217" t="inlineStr"/>
       <c r="J1217" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1217" t="inlineStr">
         <is>
@@ -42377,7 +43443,7 @@
       </c>
       <c r="I1218" t="inlineStr"/>
       <c r="J1218" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1218" t="inlineStr">
         <is>
@@ -42416,7 +43482,7 @@
       </c>
       <c r="I1219" t="inlineStr"/>
       <c r="J1219" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1219" t="inlineStr">
         <is>
@@ -42455,7 +43521,7 @@
       </c>
       <c r="I1220" t="inlineStr"/>
       <c r="J1220" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1220" t="inlineStr">
         <is>
@@ -42494,7 +43560,7 @@
       </c>
       <c r="I1221" t="inlineStr"/>
       <c r="J1221" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1221" t="inlineStr">
         <is>
@@ -42533,7 +43599,7 @@
       </c>
       <c r="I1222" t="inlineStr"/>
       <c r="J1222" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1222" t="inlineStr">
         <is>
@@ -42572,7 +43638,7 @@
       </c>
       <c r="I1223" t="inlineStr"/>
       <c r="J1223" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1223" t="inlineStr">
         <is>
@@ -42611,7 +43677,7 @@
       </c>
       <c r="I1224" t="inlineStr"/>
       <c r="J1224" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1224" t="inlineStr">
         <is>
@@ -42650,7 +43716,7 @@
       </c>
       <c r="I1225" t="inlineStr"/>
       <c r="J1225" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1225" t="inlineStr">
         <is>
@@ -42689,7 +43755,7 @@
       </c>
       <c r="I1226" t="inlineStr"/>
       <c r="J1226" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1226" t="inlineStr">
         <is>
@@ -42728,7 +43794,7 @@
       </c>
       <c r="I1227" t="inlineStr"/>
       <c r="J1227" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1227" t="inlineStr">
         <is>
@@ -42767,7 +43833,7 @@
       </c>
       <c r="I1228" t="inlineStr"/>
       <c r="J1228" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1228" t="inlineStr">
         <is>
@@ -42806,7 +43872,7 @@
       </c>
       <c r="I1229" t="inlineStr"/>
       <c r="J1229" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1229" t="inlineStr">
         <is>
@@ -42845,7 +43911,7 @@
       </c>
       <c r="I1230" t="inlineStr"/>
       <c r="J1230" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1230" t="inlineStr">
         <is>
@@ -42884,7 +43950,7 @@
       </c>
       <c r="I1231" t="inlineStr"/>
       <c r="J1231" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1231" t="inlineStr">
         <is>
@@ -42923,7 +43989,7 @@
       </c>
       <c r="I1232" t="inlineStr"/>
       <c r="J1232" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1232" t="inlineStr">
         <is>
@@ -42962,7 +44028,7 @@
       </c>
       <c r="I1233" t="inlineStr"/>
       <c r="J1233" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1233" t="inlineStr">
         <is>
@@ -43001,7 +44067,7 @@
       </c>
       <c r="I1234" t="inlineStr"/>
       <c r="J1234" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1234" t="inlineStr">
         <is>
@@ -43040,7 +44106,7 @@
       </c>
       <c r="I1235" t="inlineStr"/>
       <c r="J1235" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1235" t="inlineStr">
         <is>
@@ -43079,7 +44145,7 @@
       </c>
       <c r="I1236" t="inlineStr"/>
       <c r="J1236" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1236" t="inlineStr">
         <is>
@@ -43118,7 +44184,7 @@
       </c>
       <c r="I1237" t="inlineStr"/>
       <c r="J1237" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1237" t="inlineStr">
         <is>
@@ -43157,7 +44223,7 @@
       </c>
       <c r="I1238" t="inlineStr"/>
       <c r="J1238" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1238" t="inlineStr">
         <is>
@@ -43196,7 +44262,7 @@
       </c>
       <c r="I1239" t="inlineStr"/>
       <c r="J1239" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1239" t="inlineStr">
         <is>
@@ -43235,7 +44301,7 @@
       </c>
       <c r="I1240" t="inlineStr"/>
       <c r="J1240" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1240" t="inlineStr">
         <is>
@@ -43274,7 +44340,7 @@
       </c>
       <c r="I1241" t="inlineStr"/>
       <c r="J1241" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1241" t="inlineStr">
         <is>
@@ -43313,7 +44379,7 @@
       </c>
       <c r="I1242" t="inlineStr"/>
       <c r="J1242" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1242" t="inlineStr">
         <is>
@@ -43352,7 +44418,7 @@
       </c>
       <c r="I1243" t="inlineStr"/>
       <c r="J1243" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1243" t="inlineStr">
         <is>
@@ -43391,7 +44457,7 @@
       </c>
       <c r="I1244" t="inlineStr"/>
       <c r="J1244" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1244" t="inlineStr">
         <is>
@@ -43430,7 +44496,7 @@
       </c>
       <c r="I1245" t="inlineStr"/>
       <c r="J1245" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1245" t="inlineStr">
         <is>
@@ -43469,7 +44535,7 @@
       </c>
       <c r="I1246" t="inlineStr"/>
       <c r="J1246" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1246" t="inlineStr">
         <is>
@@ -43504,11 +44570,13 @@
         <v>-5355067.058712312</v>
       </c>
       <c r="H1247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1247" t="n">
+        <v>1.906</v>
+      </c>
       <c r="J1247" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1247" t="inlineStr">
         <is>
@@ -43543,11 +44611,13 @@
         <v>-5659647.947312312</v>
       </c>
       <c r="H1248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1248" t="n">
+        <v>1.906</v>
+      </c>
       <c r="J1248" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1248" t="inlineStr">
         <is>
@@ -43582,11 +44652,13 @@
         <v>-4129630.142112312</v>
       </c>
       <c r="H1249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1249" t="n">
+        <v>1.901</v>
+      </c>
       <c r="J1249" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1249" t="inlineStr">
         <is>
@@ -43625,7 +44697,7 @@
       </c>
       <c r="I1250" t="inlineStr"/>
       <c r="J1250" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1250" t="inlineStr">
         <is>
@@ -43664,7 +44736,7 @@
       </c>
       <c r="I1251" t="inlineStr"/>
       <c r="J1251" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1251" t="inlineStr">
         <is>
@@ -43703,7 +44775,7 @@
       </c>
       <c r="I1252" t="inlineStr"/>
       <c r="J1252" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1252" t="inlineStr">
         <is>
@@ -43742,7 +44814,7 @@
       </c>
       <c r="I1253" t="inlineStr"/>
       <c r="J1253" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1253" t="inlineStr">
         <is>
@@ -43781,7 +44853,7 @@
       </c>
       <c r="I1254" t="inlineStr"/>
       <c r="J1254" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1254" t="inlineStr">
         <is>
@@ -43820,7 +44892,7 @@
       </c>
       <c r="I1255" t="inlineStr"/>
       <c r="J1255" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1255" t="inlineStr">
         <is>
@@ -43859,7 +44931,7 @@
       </c>
       <c r="I1256" t="inlineStr"/>
       <c r="J1256" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1256" t="inlineStr">
         <is>
@@ -43898,7 +44970,7 @@
       </c>
       <c r="I1257" t="inlineStr"/>
       <c r="J1257" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1257" t="inlineStr">
         <is>
@@ -43937,7 +45009,7 @@
       </c>
       <c r="I1258" t="inlineStr"/>
       <c r="J1258" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1258" t="inlineStr">
         <is>
@@ -43976,7 +45048,7 @@
       </c>
       <c r="I1259" t="inlineStr"/>
       <c r="J1259" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1259" t="inlineStr">
         <is>
@@ -44011,11 +45083,13 @@
         <v>-4577017.372512311</v>
       </c>
       <c r="H1260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1260" t="n">
+        <v>1.926</v>
+      </c>
       <c r="J1260" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1260" t="inlineStr">
         <is>
@@ -44054,7 +45128,7 @@
       </c>
       <c r="I1261" t="inlineStr"/>
       <c r="J1261" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1261" t="inlineStr">
         <is>
@@ -44093,7 +45167,7 @@
       </c>
       <c r="I1262" t="inlineStr"/>
       <c r="J1262" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1262" t="inlineStr">
         <is>
@@ -44132,7 +45206,7 @@
       </c>
       <c r="I1263" t="inlineStr"/>
       <c r="J1263" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1263" t="inlineStr">
         <is>
@@ -44171,7 +45245,7 @@
       </c>
       <c r="I1264" t="inlineStr"/>
       <c r="J1264" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1264" t="inlineStr">
         <is>
@@ -44210,7 +45284,7 @@
       </c>
       <c r="I1265" t="inlineStr"/>
       <c r="J1265" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1265" t="inlineStr">
         <is>
@@ -44249,7 +45323,7 @@
       </c>
       <c r="I1266" t="inlineStr"/>
       <c r="J1266" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1266" t="inlineStr">
         <is>
@@ -44288,7 +45362,7 @@
       </c>
       <c r="I1267" t="inlineStr"/>
       <c r="J1267" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1267" t="inlineStr">
         <is>
@@ -44327,7 +45401,7 @@
       </c>
       <c r="I1268" t="inlineStr"/>
       <c r="J1268" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1268" t="inlineStr">
         <is>
@@ -44366,7 +45440,7 @@
       </c>
       <c r="I1269" t="inlineStr"/>
       <c r="J1269" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1269" t="inlineStr">
         <is>
@@ -44405,7 +45479,7 @@
       </c>
       <c r="I1270" t="inlineStr"/>
       <c r="J1270" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1270" t="inlineStr">
         <is>
@@ -44444,7 +45518,7 @@
       </c>
       <c r="I1271" t="inlineStr"/>
       <c r="J1271" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1271" t="inlineStr">
         <is>
@@ -44483,7 +45557,7 @@
       </c>
       <c r="I1272" t="inlineStr"/>
       <c r="J1272" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1272" t="inlineStr">
         <is>
@@ -44522,7 +45596,7 @@
       </c>
       <c r="I1273" t="inlineStr"/>
       <c r="J1273" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1273" t="inlineStr">
         <is>
@@ -44561,7 +45635,7 @@
       </c>
       <c r="I1274" t="inlineStr"/>
       <c r="J1274" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1274" t="inlineStr">
         <is>
@@ -44600,7 +45674,7 @@
       </c>
       <c r="I1275" t="inlineStr"/>
       <c r="J1275" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1275" t="inlineStr">
         <is>
@@ -44639,7 +45713,7 @@
       </c>
       <c r="I1276" t="inlineStr"/>
       <c r="J1276" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1276" t="inlineStr">
         <is>
@@ -44678,7 +45752,7 @@
       </c>
       <c r="I1277" t="inlineStr"/>
       <c r="J1277" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1277" t="inlineStr">
         <is>
@@ -44717,7 +45791,7 @@
       </c>
       <c r="I1278" t="inlineStr"/>
       <c r="J1278" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1278" t="inlineStr">
         <is>
@@ -44756,7 +45830,7 @@
       </c>
       <c r="I1279" t="inlineStr"/>
       <c r="J1279" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1279" t="inlineStr">
         <is>
@@ -44795,7 +45869,7 @@
       </c>
       <c r="I1280" t="inlineStr"/>
       <c r="J1280" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1280" t="inlineStr">
         <is>
@@ -44834,7 +45908,7 @@
       </c>
       <c r="I1281" t="inlineStr"/>
       <c r="J1281" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1281" t="inlineStr">
         <is>
@@ -44873,7 +45947,7 @@
       </c>
       <c r="I1282" t="inlineStr"/>
       <c r="J1282" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1282" t="inlineStr">
         <is>
@@ -44912,7 +45986,7 @@
       </c>
       <c r="I1283" t="inlineStr"/>
       <c r="J1283" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1283" t="inlineStr">
         <is>
@@ -44951,7 +46025,7 @@
       </c>
       <c r="I1284" t="inlineStr"/>
       <c r="J1284" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="K1284" t="inlineStr">
         <is>
@@ -44964,6 +46038,6 @@
       <c r="M1284" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest DAC.xlsx
+++ b/BackTest/2020-01-20 BackTest DAC.xlsx
@@ -5632,7 +5632,7 @@
         <v>-4222108.3758</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-4294987.032799999</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-4312921.076899999</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-4352537.610899999</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -9394,14 +9394,10 @@
         <v>-4262181.842299997</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="J273" t="n">
-        <v>1.912</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
@@ -9431,19 +9427,11 @@
         <v>-4220939.116199997</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>1.907</v>
-      </c>
-      <c r="J274" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9472,19 +9460,11 @@
         <v>-4280573.209199998</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="J275" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9516,14 +9496,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9555,14 +9529,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9594,14 +9562,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9633,14 +9595,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9672,14 +9628,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9711,14 +9661,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9750,14 +9694,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9789,14 +9727,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9828,14 +9760,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9867,14 +9793,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9906,14 +9826,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9945,14 +9859,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9984,14 +9892,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10023,14 +9925,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10062,14 +9958,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10101,14 +9991,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10140,14 +10024,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10179,14 +10057,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10218,14 +10090,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10257,14 +10123,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10296,14 +10156,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10335,14 +10189,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10374,14 +10222,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10413,14 +10255,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10452,14 +10288,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10491,14 +10321,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10530,14 +10354,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10569,14 +10387,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10608,14 +10420,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10647,14 +10453,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10686,14 +10486,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10725,14 +10519,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10764,14 +10552,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10803,14 +10585,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10842,14 +10618,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10881,14 +10651,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10920,14 +10684,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10959,14 +10717,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10998,14 +10750,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11037,14 +10783,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11076,14 +10816,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11115,14 +10849,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11154,14 +10882,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11193,14 +10915,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11232,14 +10948,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11271,14 +10981,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11310,14 +11014,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11349,14 +11047,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11388,14 +11080,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11427,14 +11113,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11466,14 +11146,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11505,14 +11179,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11544,14 +11212,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11583,14 +11245,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11622,14 +11278,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11661,14 +11311,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11700,14 +11344,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11739,14 +11377,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11778,14 +11410,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11814,15 +11440,15 @@
         <v>-4706752.423699996</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L335" t="n">
@@ -11853,12 +11479,12 @@
         <v>-4693607.702799996</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11895,9 +11521,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11934,9 +11558,7 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11973,9 +11595,7 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12009,12 +11629,12 @@
         <v>-4746931.511199996</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12048,12 +11668,12 @@
         <v>-4710254.707899996</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12090,9 +11710,7 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12129,9 +11747,7 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12165,12 +11781,12 @@
         <v>-4696508.495899997</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12204,12 +11820,12 @@
         <v>-4696508.495899997</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12246,9 +11862,7 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12282,12 +11896,12 @@
         <v>-4701736.500199997</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12321,12 +11935,12 @@
         <v>-4745344.538899997</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12360,12 +11974,12 @@
         <v>-4691258.798599998</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12399,12 +12013,12 @@
         <v>-4735383.851699998</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12438,12 +12052,12 @@
         <v>-4691428.241899998</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12477,12 +12091,12 @@
         <v>-4648907.009299998</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12516,12 +12130,12 @@
         <v>-4692915.226599998</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12555,12 +12169,12 @@
         <v>-4649287.503999998</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12594,12 +12208,12 @@
         <v>-4684172.784699998</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12633,12 +12247,12 @@
         <v>-4734198.016599998</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>1.906</v>
+      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12672,12 +12286,12 @@
         <v>-4686142.177299998</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12711,12 +12325,12 @@
         <v>-4640667.247299998</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>1.906</v>
+      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12750,12 +12364,12 @@
         <v>-4594339.849199998</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12792,9 +12406,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12831,9 +12443,7 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12870,9 +12480,7 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12909,9 +12517,7 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12948,9 +12554,7 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12987,9 +12591,7 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13026,9 +12628,7 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13065,9 +12665,7 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13104,9 +12702,7 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13143,9 +12739,7 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13182,9 +12776,7 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13221,9 +12813,7 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13260,9 +12850,7 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13296,12 +12884,12 @@
         <v>-4714092.138199999</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13335,12 +12923,12 @@
         <v>-4691364.837899999</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13374,12 +12962,12 @@
         <v>-4637828.800699999</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13416,9 +13004,7 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13455,9 +13041,7 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13494,9 +13078,7 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13530,12 +13112,12 @@
         <v>-4723908.886899997</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13572,9 +13154,7 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13611,9 +13191,7 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13650,9 +13228,7 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13689,9 +13265,7 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13728,9 +13302,7 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13767,9 +13339,7 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13806,9 +13376,7 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13845,9 +13413,7 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13884,9 +13450,7 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13923,9 +13487,7 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13962,9 +13524,7 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14001,9 +13561,7 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14040,9 +13598,7 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14079,9 +13635,7 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14118,9 +13672,7 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14157,9 +13709,7 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14196,9 +13746,7 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14235,9 +13783,7 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14274,9 +13820,7 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14310,12 +13854,12 @@
         <v>-5009950.038999997</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>1.914</v>
+      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14349,12 +13893,12 @@
         <v>-4977027.190799997</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14388,12 +13932,12 @@
         <v>-5012480.810299997</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14430,9 +13974,7 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14466,12 +14008,12 @@
         <v>-4984578.224899997</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14508,9 +14050,7 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14547,9 +14087,7 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14586,9 +14124,7 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14622,12 +14158,12 @@
         <v>-4965879.718699996</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14664,9 +14200,7 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14700,12 +14234,12 @@
         <v>-4898105.986999996</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14742,9 +14276,7 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14781,9 +14313,7 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14820,9 +14350,7 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14859,9 +14387,7 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14898,9 +14424,7 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14937,9 +14461,7 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14976,9 +14498,7 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15015,9 +14535,7 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15054,9 +14572,7 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15093,9 +14609,7 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15132,9 +14646,7 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15171,9 +14683,7 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15210,9 +14720,7 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15249,9 +14757,7 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15288,9 +14794,7 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15327,9 +14831,7 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15366,9 +14868,7 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15402,12 +14902,12 @@
         <v>-4950407.334099998</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15444,9 +14944,7 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15483,9 +14981,7 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15522,9 +15018,7 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15561,9 +15055,7 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15600,9 +15092,7 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15636,12 +15126,12 @@
         <v>-5121517.918499996</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>1.896</v>
+      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15678,9 +15168,7 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15717,9 +15205,7 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15756,9 +15242,7 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15795,9 +15279,7 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15834,9 +15316,7 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15870,12 +15350,12 @@
         <v>-5089195.659299997</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>1.907</v>
+      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15909,12 +15389,12 @@
         <v>-5004144.659299997</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15951,9 +15431,7 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15987,12 +15465,12 @@
         <v>-5057031.036699997</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16026,12 +15504,12 @@
         <v>-5006410.468199997</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16065,12 +15543,12 @@
         <v>-4964079.086899998</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>1.913</v>
+      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16107,9 +15585,7 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16146,9 +15622,7 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16182,12 +15656,12 @@
         <v>-4945547.739299997</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16221,12 +15695,12 @@
         <v>-4986730.578399997</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16260,12 +15734,12 @@
         <v>-4939909.349199997</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16299,12 +15773,12 @@
         <v>-4996593.177299997</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16338,12 +15812,12 @@
         <v>-4948899.890599997</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16377,12 +15851,12 @@
         <v>-4911545.069999997</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16416,12 +15890,12 @@
         <v>-4869693.198699997</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16455,12 +15929,12 @@
         <v>-4829654.681999997</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16494,12 +15968,12 @@
         <v>-4797216.911699997</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16533,12 +16007,12 @@
         <v>-4739871.503399997</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>1.921</v>
+      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16572,12 +16046,12 @@
         <v>-4774146.474499997</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16614,9 +16088,7 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16650,12 +16122,12 @@
         <v>-4762059.649899997</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16689,12 +16161,12 @@
         <v>-4811028.805099997</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>1.906</v>
+      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16728,12 +16200,12 @@
         <v>-4773418.345999997</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16770,9 +16242,7 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16809,9 +16279,7 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16845,12 +16313,12 @@
         <v>-4800404.901599997</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16887,9 +16355,7 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16926,9 +16392,7 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16965,9 +16429,7 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17001,12 +16463,12 @@
         <v>-4889006.144199996</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
         <v>1.912</v>
       </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17043,9 +16505,7 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17079,12 +16539,12 @@
         <v>-4896846.591499996</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>1.907</v>
+      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17118,12 +16578,12 @@
         <v>-4869375.659999996</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17160,9 +16620,7 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17199,9 +16657,7 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17235,12 +16691,12 @@
         <v>-4902634.831699996</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17277,9 +16733,7 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17316,9 +16770,7 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17355,9 +16807,7 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17394,9 +16844,7 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17433,9 +16881,7 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17472,9 +16918,7 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17511,9 +16955,7 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17550,9 +16992,7 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17589,9 +17029,7 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17628,9 +17066,7 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17667,9 +17103,7 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17706,9 +17140,7 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17745,9 +17177,7 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17784,9 +17214,7 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17823,9 +17251,7 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17859,12 +17285,12 @@
         <v>-4926459.286399998</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17901,9 +17327,7 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17940,9 +17364,7 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17979,9 +17401,7 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18018,9 +17438,7 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18057,9 +17475,7 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18096,9 +17512,7 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18135,9 +17549,7 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18174,9 +17586,7 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18213,9 +17623,7 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18252,9 +17660,7 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18291,9 +17697,7 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18330,9 +17734,7 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18369,9 +17771,7 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18408,9 +17808,7 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18447,9 +17845,7 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18486,9 +17882,7 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18525,9 +17919,7 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18564,9 +17956,7 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18603,9 +17993,7 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18642,9 +18030,7 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18681,9 +18067,7 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18720,9 +18104,7 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18759,9 +18141,7 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18798,9 +18178,7 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18837,9 +18215,7 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18876,9 +18252,7 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18915,9 +18289,7 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18954,9 +18326,7 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18993,9 +18363,7 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19032,9 +18400,7 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19071,9 +18437,7 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19110,9 +18474,7 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19149,9 +18511,7 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19188,9 +18548,7 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19227,9 +18585,7 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19266,9 +18622,7 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19305,9 +18659,7 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19344,9 +18696,7 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19383,9 +18733,7 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19422,9 +18770,7 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19461,9 +18807,7 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19500,9 +18844,7 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19539,9 +18881,7 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19578,9 +18918,7 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19617,9 +18955,7 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19656,9 +18992,7 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19695,9 +19029,7 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19734,9 +19066,7 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19773,9 +19103,7 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19812,9 +19140,7 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19851,9 +19177,7 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19887,12 +19211,12 @@
         <v>-5390923.5135</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
-      </c>
-      <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I542" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19929,9 +19253,7 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19968,9 +19290,7 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20004,12 +19324,12 @@
         <v>-5427676.6431</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
-      </c>
-      <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I545" t="n">
+        <v>1.921</v>
+      </c>
+      <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20043,12 +19363,12 @@
         <v>-5394564.2465</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I546" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20082,12 +19402,12 @@
         <v>-5378479.544500001</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20121,12 +19441,12 @@
         <v>-5330091.221500001</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I548" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20163,9 +19483,7 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20202,9 +19520,7 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20238,12 +19554,12 @@
         <v>-5382539.203400001</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20277,12 +19593,12 @@
         <v>-5510543.709200001</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I552" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20316,12 +19632,12 @@
         <v>-5532123.999800001</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
+        <v>1</v>
+      </c>
+      <c r="I553" t="n">
         <v>1.912</v>
       </c>
+      <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20355,12 +19671,12 @@
         <v>-5485084.471000001</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I554" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20394,12 +19710,12 @@
         <v>-5442910.122100001</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
-      </c>
-      <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I555" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20436,9 +19752,7 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20475,9 +19789,7 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20511,12 +19823,12 @@
         <v>-5381167.314300002</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
-      </c>
-      <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I558" t="n">
+        <v>1.913</v>
+      </c>
+      <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20550,12 +19862,12 @@
         <v>-5337287.956500001</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
-      </c>
-      <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I559" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20592,9 +19904,7 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20628,12 +19938,12 @@
         <v>-5334158.2174</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
-      </c>
-      <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I561" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20667,12 +19977,12 @@
         <v>-5378288.7681</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
-      </c>
-      <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I562" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20706,12 +20016,12 @@
         <v>-5402037.7921</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
-      </c>
-      <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I563" t="n">
+        <v>1.922</v>
+      </c>
+      <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20745,12 +20055,12 @@
         <v>-5402037.7921</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
-      </c>
-      <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I564" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20784,12 +20094,12 @@
         <v>-5445399.810500001</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I565" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20823,12 +20133,12 @@
         <v>-5419229.218900001</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
-      </c>
-      <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
+        <v>1</v>
+      </c>
+      <c r="I566" t="n">
         <v>1.912</v>
       </c>
+      <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20862,12 +20172,12 @@
         <v>-5467406.5042</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I567" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20901,12 +20211,12 @@
         <v>-5492484.620300001</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
-      </c>
-      <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I568" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20940,12 +20250,12 @@
         <v>-5433430.8629</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
-      </c>
-      <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I569" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20979,12 +20289,12 @@
         <v>-5387693.6632</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I570" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21018,12 +20328,12 @@
         <v>-5405136.7561</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
-      </c>
-      <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I571" t="n">
+        <v>1.921</v>
+      </c>
+      <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21057,12 +20367,12 @@
         <v>-5340824.5152</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21096,12 +20406,12 @@
         <v>-5360852.3244</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
-      </c>
-      <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I573" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21135,12 +20445,12 @@
         <v>-5405404.3635</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I574" t="n">
+        <v>1.922</v>
+      </c>
+      <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21174,12 +20484,12 @@
         <v>-5443585.7395</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
-      </c>
-      <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I575" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21213,12 +20523,12 @@
         <v>-5401648.7597</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
-      </c>
-      <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
+        <v>1</v>
+      </c>
+      <c r="I576" t="n">
         <v>1.912</v>
       </c>
+      <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21252,12 +20562,12 @@
         <v>-5439263.61</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
-      </c>
-      <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I577" t="n">
+        <v>1.922</v>
+      </c>
+      <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21291,12 +20601,12 @@
         <v>-5399900.866</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
+        <v>1</v>
+      </c>
+      <c r="I578" t="n">
         <v>1.912</v>
       </c>
+      <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21330,12 +20640,12 @@
         <v>-5437458.001300001</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I579" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21369,12 +20679,12 @@
         <v>-5408036.713</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
-      </c>
-      <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I580" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21408,12 +20718,12 @@
         <v>-5445075.318700001</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I581" t="n">
+        <v>1.921</v>
+      </c>
+      <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21447,12 +20757,12 @@
         <v>-5402069.363500001</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21486,12 +20796,12 @@
         <v>-5444606.709000001</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I583" t="n">
+        <v>1.922</v>
+      </c>
+      <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21525,12 +20835,12 @@
         <v>-5402659.988900001</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I584" t="n">
+        <v>1.914</v>
+      </c>
+      <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21564,12 +20874,12 @@
         <v>-5432944.428500001</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I585" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21603,12 +20913,12 @@
         <v>-5388353.767800001</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I586" t="n">
+        <v>1.921</v>
+      </c>
+      <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21642,12 +20952,12 @@
         <v>-5439489.029700002</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I587" t="n">
+        <v>1.923</v>
+      </c>
+      <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21681,12 +20991,12 @@
         <v>-5373670.710800001</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I588" t="n">
+        <v>1.921</v>
+      </c>
+      <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21720,12 +21030,12 @@
         <v>-5420184.772500002</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I589" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21759,12 +21069,12 @@
         <v>-5385962.290900002</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I590" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21798,12 +21108,12 @@
         <v>-5348460.255000003</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I591" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21837,12 +21147,12 @@
         <v>-5375077.521000003</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I592" t="n">
+        <v>1.923</v>
+      </c>
+      <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21876,12 +21186,12 @@
         <v>-5330360.705100003</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I593" t="n">
+        <v>1.913</v>
+      </c>
+      <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21915,12 +21225,12 @@
         <v>-5330360.705100003</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I594" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21954,12 +21264,12 @@
         <v>-5386370.407000002</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I595" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21993,12 +21303,12 @@
         <v>-5342631.884500002</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I596" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22032,12 +21342,12 @@
         <v>-5304038.669500003</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
-      </c>
-      <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I597" t="n">
+        <v>1.923</v>
+      </c>
+      <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22071,12 +21381,12 @@
         <v>-5365580.148500003</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
-      </c>
-      <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I598" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22110,12 +21420,12 @@
         <v>-5321980.504400003</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I599" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22149,12 +21459,12 @@
         <v>-5280107.554300003</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I600" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22188,12 +21498,12 @@
         <v>-5370207.993000003</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
-      </c>
-      <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I601" t="n">
+        <v>1.922</v>
+      </c>
+      <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22227,12 +21537,12 @@
         <v>-5657308.236800003</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I602" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22266,12 +21576,12 @@
         <v>-5572945.166200003</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I603" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22305,12 +21615,12 @@
         <v>-5617347.023100003</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I604" t="n">
+        <v>1.923</v>
+      </c>
+      <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22344,12 +21654,12 @@
         <v>-5660971.827700003</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
+        <v>1</v>
+      </c>
+      <c r="I605" t="n">
         <v>1.912</v>
       </c>
+      <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22388,9 +21698,7 @@
       <c r="I606" t="n">
         <v>1.909</v>
       </c>
-      <c r="J606" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22429,9 +21737,7 @@
       <c r="I607" t="n">
         <v>1.916</v>
       </c>
-      <c r="J607" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22465,12 +21771,12 @@
         <v>-5582123.221800003</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
-      </c>
-      <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I608" t="n">
+        <v>1.922</v>
+      </c>
+      <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22509,9 +21815,7 @@
       <c r="I609" t="n">
         <v>1.916</v>
       </c>
-      <c r="J609" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22545,12 +21849,12 @@
         <v>-5521525.664000003</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I610" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22584,12 +21888,12 @@
         <v>-5559310.629500003</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I611" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22623,12 +21927,12 @@
         <v>-5590676.732600003</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I612" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22662,12 +21966,12 @@
         <v>-5554562.425400003</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I613" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22701,12 +22005,12 @@
         <v>-5600390.080200003</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I614" t="n">
+        <v>1.921</v>
+      </c>
+      <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22745,9 +22049,7 @@
       <c r="I615" t="n">
         <v>1.92</v>
       </c>
-      <c r="J615" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22786,9 +22088,7 @@
       <c r="I616" t="n">
         <v>1.918</v>
       </c>
-      <c r="J616" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22827,9 +22127,7 @@
       <c r="I617" t="n">
         <v>1.924</v>
       </c>
-      <c r="J617" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22868,9 +22166,7 @@
       <c r="I618" t="n">
         <v>1.919</v>
       </c>
-      <c r="J618" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22909,9 +22205,7 @@
       <c r="I619" t="n">
         <v>1.918</v>
       </c>
-      <c r="J619" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22950,9 +22244,7 @@
       <c r="I620" t="n">
         <v>1.921</v>
       </c>
-      <c r="J620" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22991,9 +22283,7 @@
       <c r="I621" t="n">
         <v>1.919</v>
       </c>
-      <c r="J621" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23032,9 +22322,7 @@
       <c r="I622" t="n">
         <v>1.917</v>
       </c>
-      <c r="J622" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23073,9 +22361,7 @@
       <c r="I623" t="n">
         <v>1.922</v>
       </c>
-      <c r="J623" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23114,9 +22400,7 @@
       <c r="I624" t="n">
         <v>1.921</v>
       </c>
-      <c r="J624" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23155,9 +22439,7 @@
       <c r="I625" t="n">
         <v>1.923</v>
       </c>
-      <c r="J625" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23196,9 +22478,7 @@
       <c r="I626" t="n">
         <v>1.918</v>
       </c>
-      <c r="J626" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23237,9 +22517,7 @@
       <c r="I627" t="n">
         <v>1.918</v>
       </c>
-      <c r="J627" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23278,9 +22556,7 @@
       <c r="I628" t="n">
         <v>1.922</v>
       </c>
-      <c r="J628" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23314,12 +22590,12 @@
         <v>-5729722.730000001</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
-      </c>
-      <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I629" t="n">
+        <v>1.921</v>
+      </c>
+      <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23358,9 +22634,7 @@
       <c r="I630" t="n">
         <v>1.923</v>
       </c>
-      <c r="J630" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23399,9 +22673,7 @@
       <c r="I631" t="n">
         <v>1.911</v>
       </c>
-      <c r="J631" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23440,9 +22712,7 @@
       <c r="I632" t="n">
         <v>1.914</v>
       </c>
-      <c r="J632" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23481,9 +22751,7 @@
       <c r="I633" t="n">
         <v>1.913</v>
       </c>
-      <c r="J633" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23522,9 +22790,7 @@
       <c r="I634" t="n">
         <v>1.913</v>
       </c>
-      <c r="J634" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23563,9 +22829,7 @@
       <c r="I635" t="n">
         <v>1.923</v>
       </c>
-      <c r="J635" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23604,9 +22868,7 @@
       <c r="I636" t="n">
         <v>1.918</v>
       </c>
-      <c r="J636" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23645,9 +22907,7 @@
       <c r="I637" t="n">
         <v>1.918</v>
       </c>
-      <c r="J637" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23686,9 +22946,7 @@
       <c r="I638" t="n">
         <v>1.918</v>
       </c>
-      <c r="J638" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23727,9 +22985,7 @@
       <c r="I639" t="n">
         <v>1.926</v>
       </c>
-      <c r="J639" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23763,12 +23019,12 @@
         <v>-5480802.759500002</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I640" t="n">
+        <v>1.923</v>
+      </c>
+      <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23807,9 +23063,7 @@
       <c r="I641" t="n">
         <v>1.922</v>
       </c>
-      <c r="J641" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23848,9 +23102,7 @@
       <c r="I642" t="n">
         <v>1.921</v>
       </c>
-      <c r="J642" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23884,12 +23136,12 @@
         <v>-5477323.200800002</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
-      </c>
-      <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I643" t="n">
+        <v>1.927</v>
+      </c>
+      <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23923,12 +23175,12 @@
         <v>-5522329.585600002</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I644" t="n">
+        <v>1.927</v>
+      </c>
+      <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23962,12 +23214,12 @@
         <v>-5489826.248700001</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
-      </c>
-      <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I645" t="n">
+        <v>1.921</v>
+      </c>
+      <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24001,12 +23253,12 @@
         <v>-5524629.459200001</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I646" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24045,9 +23297,7 @@
       <c r="I647" t="n">
         <v>1.922</v>
       </c>
-      <c r="J647" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24081,12 +23331,12 @@
         <v>-5446373.777400001</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
-      </c>
-      <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I648" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24120,12 +23370,12 @@
         <v>-5422066.101800001</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
-      </c>
-      <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I649" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24159,12 +23409,12 @@
         <v>-5455253.180600001</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
-      </c>
-      <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I650" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24203,9 +23453,7 @@
       <c r="I651" t="n">
         <v>1.918</v>
       </c>
-      <c r="J651" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24239,12 +23487,12 @@
         <v>-5371965.304900001</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
-      </c>
-      <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I652" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24278,12 +23526,12 @@
         <v>-5423636.263400001</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
-      </c>
-      <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I653" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24317,12 +23565,12 @@
         <v>-5466828.9549</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
-      </c>
-      <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I654" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24361,9 +23609,7 @@
       <c r="I655" t="n">
         <v>1.925</v>
       </c>
-      <c r="J655" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24397,12 +23643,12 @@
         <v>-5467433.1671</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
-      </c>
-      <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I656" t="n">
+        <v>1.923</v>
+      </c>
+      <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24436,12 +23682,12 @@
         <v>-5420873.726600001</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
-      </c>
-      <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I657" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24475,12 +23721,12 @@
         <v>-5448754.513200001</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
-      </c>
-      <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I658" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24519,9 +23765,7 @@
       <c r="I659" t="n">
         <v>1.928</v>
       </c>
-      <c r="J659" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24560,9 +23804,7 @@
       <c r="I660" t="n">
         <v>1.927</v>
       </c>
-      <c r="J660" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24601,9 +23843,7 @@
       <c r="I661" t="n">
         <v>1.918</v>
       </c>
-      <c r="J661" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24642,9 +23882,7 @@
       <c r="I662" t="n">
         <v>1.923</v>
       </c>
-      <c r="J662" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24683,9 +23921,7 @@
       <c r="I663" t="n">
         <v>1.922</v>
       </c>
-      <c r="J663" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24724,9 +23960,7 @@
       <c r="I664" t="n">
         <v>1.929</v>
       </c>
-      <c r="J664" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24760,12 +23994,12 @@
         <v>-5579489.566800002</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
-      </c>
-      <c r="I665" t="inlineStr"/>
-      <c r="J665" t="n">
-        <v>1.912</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I665" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24804,9 +24038,7 @@
       <c r="I666" t="n">
         <v>1.927</v>
       </c>
-      <c r="J666" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24845,9 +24077,7 @@
       <c r="I667" t="n">
         <v>1.92</v>
       </c>
-      <c r="J667" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24886,9 +24116,7 @@
       <c r="I668" t="n">
         <v>1.918</v>
       </c>
-      <c r="J668" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24927,9 +24155,7 @@
       <c r="I669" t="n">
         <v>1.925</v>
       </c>
-      <c r="J669" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24968,9 +24194,7 @@
       <c r="I670" t="n">
         <v>1.919</v>
       </c>
-      <c r="J670" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25009,9 +24233,7 @@
       <c r="I671" t="n">
         <v>1.923</v>
       </c>
-      <c r="J671" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25050,9 +24272,7 @@
       <c r="I672" t="n">
         <v>1.925</v>
       </c>
-      <c r="J672" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25091,9 +24311,7 @@
       <c r="I673" t="n">
         <v>1.928</v>
       </c>
-      <c r="J673" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25132,9 +24350,7 @@
       <c r="I674" t="n">
         <v>1.924</v>
       </c>
-      <c r="J674" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25173,9 +24389,7 @@
       <c r="I675" t="n">
         <v>1.925</v>
       </c>
-      <c r="J675" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25214,9 +24428,7 @@
       <c r="I676" t="n">
         <v>1.925</v>
       </c>
-      <c r="J676" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25255,9 +24467,7 @@
       <c r="I677" t="n">
         <v>1.918</v>
       </c>
-      <c r="J677" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25296,9 +24506,7 @@
       <c r="I678" t="n">
         <v>1.922</v>
       </c>
-      <c r="J678" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25337,9 +24545,7 @@
       <c r="I679" t="n">
         <v>1.923</v>
       </c>
-      <c r="J679" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25378,9 +24584,7 @@
       <c r="I680" t="n">
         <v>1.927</v>
       </c>
-      <c r="J680" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25419,9 +24623,7 @@
       <c r="I681" t="n">
         <v>1.921</v>
       </c>
-      <c r="J681" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25460,9 +24662,7 @@
       <c r="I682" t="n">
         <v>1.923</v>
       </c>
-      <c r="J682" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25501,9 +24701,7 @@
       <c r="I683" t="n">
         <v>1.923</v>
       </c>
-      <c r="J683" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25542,9 +24740,7 @@
       <c r="I684" t="n">
         <v>1.924</v>
       </c>
-      <c r="J684" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25583,9 +24779,7 @@
       <c r="I685" t="n">
         <v>1.922</v>
       </c>
-      <c r="J685" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25624,9 +24818,7 @@
       <c r="I686" t="n">
         <v>1.924</v>
       </c>
-      <c r="J686" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25665,9 +24857,7 @@
       <c r="I687" t="n">
         <v>1.92</v>
       </c>
-      <c r="J687" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25706,9 +24896,7 @@
       <c r="I688" t="n">
         <v>1.925</v>
       </c>
-      <c r="J688" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25747,9 +24935,7 @@
       <c r="I689" t="n">
         <v>1.929</v>
       </c>
-      <c r="J689" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25788,9 +24974,7 @@
       <c r="I690" t="n">
         <v>1.928</v>
       </c>
-      <c r="J690" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25829,9 +25013,7 @@
       <c r="I691" t="n">
         <v>1.938</v>
       </c>
-      <c r="J691" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25868,9 +25050,7 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25904,19 +25084,17 @@
         <v>-5050264.6878</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="n">
-        <v>1.912</v>
-      </c>
+      <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L693" t="n">
-        <v>1.009121338912134</v>
+        <v>1</v>
       </c>
       <c r="M693" t="inlineStr"/>
     </row>
@@ -25943,11 +25121,15 @@
         <v>-5010222.3232</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -25976,11 +25158,15 @@
         <v>-5010222.3232</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -26009,11 +25195,15 @@
         <v>-4956686.6352</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -26042,11 +25232,15 @@
         <v>-4999164.6342</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -26075,11 +25269,15 @@
         <v>-5012135.2724</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -26112,7 +25310,11 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -26141,11 +25343,15 @@
         <v>-4991027.6822</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -26174,11 +25380,15 @@
         <v>-4795852.7957</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -26207,11 +25417,15 @@
         <v>-4379109.9783</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -26240,11 +25454,15 @@
         <v>-4295203.186274366</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -26273,11 +25491,15 @@
         <v>-4231708.253774365</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -26306,11 +25528,15 @@
         <v>-4256490.135974365</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -26339,11 +25565,15 @@
         <v>-4230775.937574365</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -26376,7 +25606,11 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -26409,7 +25643,11 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -26442,7 +25680,11 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -26475,7 +25717,11 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -26508,7 +25754,11 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -26541,7 +25791,11 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -26574,7 +25828,11 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -26607,7 +25865,11 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -26636,11 +25898,15 @@
         <v>-4136981.839574365</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -26669,11 +25935,15 @@
         <v>-4157248.339674365</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -26702,11 +25972,15 @@
         <v>-4093826.355974365</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -26735,11 +26009,15 @@
         <v>-4052257.637174365</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -26768,11 +26046,15 @@
         <v>-4084008.891274365</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -26805,7 +26087,11 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -26838,7 +26124,11 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -26871,7 +26161,11 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -26904,7 +26198,11 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -26937,7 +26235,11 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -26966,11 +26268,15 @@
         <v>-3735168.9958</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -26999,11 +26305,15 @@
         <v>-3695743.9044</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -27032,11 +26342,15 @@
         <v>-3733868.6852</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -27065,11 +26379,15 @@
         <v>-3764298.6609</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -27098,11 +26416,15 @@
         <v>-3764298.6609</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -27135,7 +26457,11 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -27168,7 +26494,11 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -27201,7 +26531,11 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -27234,7 +26568,11 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -27267,7 +26605,11 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -27300,7 +26642,11 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -27333,7 +26679,11 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -27366,7 +26716,11 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -27399,7 +26753,11 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -27432,7 +26790,11 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -27465,7 +26827,11 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -27498,7 +26864,11 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -27531,7 +26901,11 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -27564,7 +26938,11 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -27597,7 +26975,11 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -27630,7 +27012,11 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -27663,7 +27049,11 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -27696,7 +27086,11 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -27729,7 +27123,11 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -27762,7 +27160,11 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -27795,7 +27197,11 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -27828,7 +27234,11 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -27861,7 +27271,11 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -27894,7 +27308,11 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -27927,7 +27345,11 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -27956,14 +27378,16 @@
         <v>-3096001.415212314</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
-      <c r="L755" t="n">
-        <v>1</v>
-      </c>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L755" t="inlineStr"/>
       <c r="M755" t="inlineStr"/>
     </row>
     <row r="756">
@@ -28253,7 +27677,7 @@
         <v>-2163614.916512314</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -28286,7 +27710,7 @@
         <v>-2204541.271012314</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -28352,7 +27776,7 @@
         <v>-2167924.097112314</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -28385,7 +27809,7 @@
         <v>-2213109.351312314</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -28418,7 +27842,7 @@
         <v>-2173491.115512314</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -28451,7 +27875,7 @@
         <v>-2136862.624912314</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -28484,7 +27908,7 @@
         <v>-2184868.376212314</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -28517,7 +27941,7 @@
         <v>-2148205.959012314</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -28550,7 +27974,7 @@
         <v>-2107476.323512314</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -28583,7 +28007,7 @@
         <v>-2107476.323512314</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -28616,7 +28040,7 @@
         <v>-2156572.540512315</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -28649,7 +28073,7 @@
         <v>-2111829.842812315</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -28682,7 +28106,7 @@
         <v>-2147961.443412315</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -28715,7 +28139,7 @@
         <v>-2188216.661012315</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -28748,7 +28172,7 @@
         <v>-2152773.520312315</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -28781,7 +28205,7 @@
         <v>-2192075.899212315</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -28814,7 +28238,7 @@
         <v>-2131392.925212315</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -28847,7 +28271,7 @@
         <v>-2131392.925212315</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -28880,7 +28304,7 @@
         <v>-2240836.948012315</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -28913,7 +28337,7 @@
         <v>-2226650.950312315</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -28946,7 +28370,7 @@
         <v>-2180246.155212314</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -29012,7 +28436,7 @@
         <v>-2186463.835712314</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -29078,7 +28502,7 @@
         <v>-1048537.709112314</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -29111,7 +28535,7 @@
         <v>-1084125.580612314</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -29144,7 +28568,7 @@
         <v>-1031396.836512314</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -29177,7 +28601,7 @@
         <v>-1081505.039012314</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -29210,7 +28634,7 @@
         <v>-1044591.190512314</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -29243,7 +28667,7 @@
         <v>-1075088.938412314</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -29276,7 +28700,7 @@
         <v>-1108664.488512314</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -29309,7 +28733,7 @@
         <v>-1060414.289012314</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -29342,7 +28766,7 @@
         <v>-1022544.304512314</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -29375,7 +28799,7 @@
         <v>-1041710.782512314</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -29408,7 +28832,7 @@
         <v>-992623.593912314</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -29441,7 +28865,7 @@
         <v>-1032393.948812314</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -29474,7 +28898,7 @@
         <v>-1000079.065512314</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -29507,7 +28931,7 @@
         <v>-2084540.884512314</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -29540,7 +28964,7 @@
         <v>-2600664.447712314</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -29573,7 +28997,7 @@
         <v>-1825533.308912314</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -29606,7 +29030,7 @@
         <v>-1803262.307912315</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -29639,7 +29063,7 @@
         <v>-1845292.772512315</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -29672,7 +29096,7 @@
         <v>-1801911.823912315</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -29705,7 +29129,7 @@
         <v>-1757153.764912315</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -29738,7 +29162,7 @@
         <v>-1711227.940012315</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -29771,7 +29195,7 @@
         <v>-1711227.940012315</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -29804,7 +29228,7 @@
         <v>-1751018.053112315</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -29837,7 +29261,7 @@
         <v>-1790119.407112315</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -29870,7 +29294,7 @@
         <v>-1751025.385312315</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -29903,7 +29327,7 @@
         <v>-1787011.478212315</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -29936,7 +29360,7 @@
         <v>-1787011.478212315</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -29969,7 +29393,7 @@
         <v>-1833352.130812315</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -30002,7 +29426,7 @@
         <v>-1775146.153512315</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -30035,7 +29459,7 @@
         <v>-1822527.841112315</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -30068,7 +29492,7 @@
         <v>-1854280.035812315</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -30101,7 +29525,7 @@
         <v>-1811497.332212315</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -30134,7 +29558,7 @@
         <v>-1771683.193812315</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -30167,7 +29591,7 @@
         <v>-1790642.926712315</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -30200,7 +29624,7 @@
         <v>-1749816.453812315</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -30233,7 +29657,7 @@
         <v>-1821396.779112315</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -30266,7 +29690,7 @@
         <v>-1783052.280612315</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -30464,7 +29888,7 @@
         <v>-1799822.456212315</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -30530,7 +29954,7 @@
         <v>-1805698.130412315</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -30794,7 +30218,7 @@
         <v>-1788729.672412315</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -33599,7 +33023,7 @@
         <v>-1488833.734512315</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -33632,7 +33056,7 @@
         <v>-1529433.904212315</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -33665,7 +33089,7 @@
         <v>-1488958.477712315</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -33698,7 +33122,7 @@
         <v>-1532284.396912315</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -33731,7 +33155,7 @@
         <v>-1488880.109612315</v>
       </c>
       <c r="H930" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -33764,7 +33188,7 @@
         <v>-1538950.807212315</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -33797,7 +33221,7 @@
         <v>-1491073.916812315</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -33830,7 +33254,7 @@
         <v>-1491073.916812315</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -33863,7 +33287,7 @@
         <v>-1537574.683112315</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -33896,7 +33320,7 @@
         <v>-1504468.168812315</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -33929,7 +33353,7 @@
         <v>-1524281.551112315</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -33962,7 +33386,7 @@
         <v>-1594506.973712315</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -33995,7 +33419,7 @@
         <v>-1554385.023212315</v>
       </c>
       <c r="H938" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -34028,7 +33452,7 @@
         <v>-1571368.995012315</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -34061,7 +33485,7 @@
         <v>-1544943.046612315</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -34094,7 +33518,7 @@
         <v>-1518413.679912315</v>
       </c>
       <c r="H941" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -34127,7 +33551,7 @@
         <v>-1552875.470012315</v>
       </c>
       <c r="H942" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -34160,7 +33584,7 @@
         <v>-1511346.038312315</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -34193,7 +33617,7 @@
         <v>-1470028.137212315</v>
       </c>
       <c r="H944" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -34226,7 +33650,7 @@
         <v>-1458679.181612315</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -34259,7 +33683,7 @@
         <v>-1503255.368012315</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -34292,7 +33716,7 @@
         <v>-1454142.725812315</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -34325,7 +33749,7 @@
         <v>-1454142.725812315</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -34358,7 +33782,7 @@
         <v>-1468200.748512315</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -34391,7 +33815,7 @@
         <v>-1432091.145012315</v>
       </c>
       <c r="H950" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -34424,7 +33848,7 @@
         <v>-1521049.547712315</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -34457,7 +33881,7 @@
         <v>-1477789.316812315</v>
       </c>
       <c r="H952" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -34490,7 +33914,7 @@
         <v>-1547751.551912315</v>
       </c>
       <c r="H953" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -34523,7 +33947,7 @@
         <v>-1501279.244712315</v>
       </c>
       <c r="H954" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -34556,7 +33980,7 @@
         <v>-1550810.947112315</v>
       </c>
       <c r="H955" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -34589,7 +34013,7 @@
         <v>-1550810.947112315</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -34622,7 +34046,7 @@
         <v>-1625988.775412315</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -34655,7 +34079,7 @@
         <v>-1592498.423312315</v>
       </c>
       <c r="H958" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -34688,7 +34112,7 @@
         <v>-1646000.790212315</v>
       </c>
       <c r="H959" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -34721,7 +34145,7 @@
         <v>-1625445.594612315</v>
       </c>
       <c r="H960" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -34754,7 +34178,7 @@
         <v>-1625445.594612315</v>
       </c>
       <c r="H961" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -34787,7 +34211,7 @@
         <v>-1589945.978012315</v>
       </c>
       <c r="H962" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -34820,7 +34244,7 @@
         <v>-1589945.978012315</v>
       </c>
       <c r="H963" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -34853,7 +34277,7 @@
         <v>-1589945.978012315</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -34886,7 +34310,7 @@
         <v>-1624155.957112315</v>
       </c>
       <c r="H965" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -34919,7 +34343,7 @@
         <v>-1568442.766612315</v>
       </c>
       <c r="H966" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -34952,7 +34376,7 @@
         <v>-1529300.980312315</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -34985,7 +34409,7 @@
         <v>-1560819.090512315</v>
       </c>
       <c r="H968" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -35084,7 +34508,7 @@
         <v>-1497438.829412315</v>
       </c>
       <c r="H971" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -35117,7 +34541,7 @@
         <v>-1442776.451012315</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -35150,7 +34574,7 @@
         <v>-1442776.451012315</v>
       </c>
       <c r="H973" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -35183,7 +34607,7 @@
         <v>-1478597.211612315</v>
       </c>
       <c r="H974" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -35216,7 +34640,7 @@
         <v>-1450107.722512315</v>
       </c>
       <c r="H975" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -35249,7 +34673,7 @@
         <v>-1435076.513012315</v>
       </c>
       <c r="H976" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -35282,7 +34706,7 @@
         <v>-1394238.403812315</v>
       </c>
       <c r="H977" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -35315,7 +34739,7 @@
         <v>-1448496.514212315</v>
       </c>
       <c r="H978" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -35348,7 +34772,7 @@
         <v>-1587958.205612315</v>
       </c>
       <c r="H979" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -35381,7 +34805,7 @@
         <v>-1705494.318312315</v>
       </c>
       <c r="H980" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -35414,7 +34838,7 @@
         <v>-1787367.662612315</v>
       </c>
       <c r="H981" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -35744,7 +35168,7 @@
         <v>-1583664.161612315</v>
       </c>
       <c r="H991" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -35777,7 +35201,7 @@
         <v>-1549174.133512315</v>
       </c>
       <c r="H992" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -35810,7 +35234,7 @@
         <v>-1549174.133512315</v>
       </c>
       <c r="H993" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -35843,7 +35267,7 @@
         <v>-1569611.970312315</v>
       </c>
       <c r="H994" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -35909,7 +35333,7 @@
         <v>-1479314.457312315</v>
       </c>
       <c r="H996" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -35942,7 +35366,7 @@
         <v>-1521397.720612315</v>
       </c>
       <c r="H997" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -35975,7 +35399,7 @@
         <v>-1475636.110412315</v>
       </c>
       <c r="H998" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -36008,7 +35432,7 @@
         <v>-1475636.110412315</v>
       </c>
       <c r="H999" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -36041,7 +35465,7 @@
         <v>-1501828.810412314</v>
       </c>
       <c r="H1000" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -36074,7 +35498,7 @@
         <v>-1562217.898412314</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -36437,7 +35861,7 @@
         <v>-1505085.298812314</v>
       </c>
       <c r="H1012" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -36470,7 +35894,7 @@
         <v>-1467666.806212314</v>
       </c>
       <c r="H1013" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -36965,7 +36389,7 @@
         <v>-1479541.440212314</v>
       </c>
       <c r="H1028" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -36998,7 +36422,7 @@
         <v>-1426940.559812314</v>
       </c>
       <c r="H1029" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -37031,7 +36455,7 @@
         <v>-1470418.616012314</v>
       </c>
       <c r="H1030" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -37460,7 +36884,7 @@
         <v>-1584709.025412314</v>
       </c>
       <c r="H1043" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -37559,7 +36983,7 @@
         <v>-1487188.544912314</v>
       </c>
       <c r="H1046" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
@@ -37592,7 +37016,7 @@
         <v>-1506589.048012314</v>
       </c>
       <c r="H1047" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
@@ -37658,7 +37082,7 @@
         <v>-1551472.628212314</v>
       </c>
       <c r="H1049" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
@@ -37691,7 +37115,7 @@
         <v>-1593311.681312314</v>
       </c>
       <c r="H1050" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
@@ -37724,7 +37148,7 @@
         <v>-1664648.380812314</v>
       </c>
       <c r="H1051" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
@@ -37790,7 +37214,7 @@
         <v>-1682106.037712314</v>
       </c>
       <c r="H1053" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
@@ -37823,7 +37247,7 @@
         <v>-1637749.444812314</v>
       </c>
       <c r="H1054" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
@@ -37856,7 +37280,7 @@
         <v>-1678683.535512314</v>
       </c>
       <c r="H1055" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
@@ -37922,7 +37346,7 @@
         <v>-1612079.483112314</v>
       </c>
       <c r="H1057" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
@@ -37955,7 +37379,7 @@
         <v>-1645472.803612314</v>
       </c>
       <c r="H1058" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
@@ -38021,7 +37445,7 @@
         <v>-1703313.094312314</v>
       </c>
       <c r="H1060" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
@@ -38120,7 +37544,7 @@
         <v>-1309308.394412314</v>
       </c>
       <c r="H1063" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
@@ -38153,7 +37577,7 @@
         <v>-1273116.893912314</v>
       </c>
       <c r="H1064" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
@@ -38186,7 +37610,7 @@
         <v>-1342010.886112314</v>
       </c>
       <c r="H1065" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
@@ -38219,7 +37643,7 @@
         <v>-1298577.788612314</v>
       </c>
       <c r="H1066" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
@@ -38252,7 +37676,7 @@
         <v>-1337246.430212314</v>
       </c>
       <c r="H1067" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
@@ -38285,7 +37709,7 @@
         <v>-1296073.451812314</v>
       </c>
       <c r="H1068" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
@@ -38318,7 +37742,7 @@
         <v>-1338202.513912314</v>
       </c>
       <c r="H1069" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
@@ -38351,7 +37775,7 @@
         <v>-1338202.513912314</v>
       </c>
       <c r="H1070" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
@@ -38384,7 +37808,7 @@
         <v>-1290788.758112314</v>
       </c>
       <c r="H1071" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
@@ -38417,7 +37841,7 @@
         <v>-1290788.758112314</v>
       </c>
       <c r="H1072" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
@@ -38450,7 +37874,7 @@
         <v>-944662.2887123143</v>
       </c>
       <c r="H1073" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
@@ -38483,7 +37907,7 @@
         <v>-944662.2887123143</v>
       </c>
       <c r="H1074" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
@@ -38516,7 +37940,7 @@
         <v>-892538.4424123144</v>
       </c>
       <c r="H1075" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
@@ -38549,7 +37973,7 @@
         <v>-920593.4580123144</v>
       </c>
       <c r="H1076" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
@@ -38582,7 +38006,7 @@
         <v>-876406.2691123144</v>
       </c>
       <c r="H1077" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
@@ -38615,7 +38039,7 @@
         <v>-917146.8187123145</v>
       </c>
       <c r="H1078" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
@@ -38648,7 +38072,7 @@
         <v>-1012025.241612314</v>
       </c>
       <c r="H1079" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
@@ -38681,7 +38105,7 @@
         <v>-1112848.420612314</v>
       </c>
       <c r="H1080" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
@@ -38714,7 +38138,7 @@
         <v>-1068897.855112314</v>
       </c>
       <c r="H1081" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
@@ -38747,7 +38171,7 @@
         <v>-1125162.639012314</v>
       </c>
       <c r="H1082" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
@@ -38780,7 +38204,7 @@
         <v>-1087398.195512314</v>
       </c>
       <c r="H1083" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
@@ -38813,7 +38237,7 @@
         <v>-1130270.313512314</v>
       </c>
       <c r="H1084" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
@@ -38846,7 +38270,7 @@
         <v>-1082652.448612314</v>
       </c>
       <c r="H1085" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
@@ -38879,7 +38303,7 @@
         <v>-1128020.454812314</v>
       </c>
       <c r="H1086" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
@@ -38912,7 +38336,7 @@
         <v>-1146792.500612314</v>
       </c>
       <c r="H1087" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
@@ -38945,7 +38369,7 @@
         <v>-1100028.783612314</v>
       </c>
       <c r="H1088" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
@@ -38978,7 +38402,7 @@
         <v>-1164240.477412314</v>
       </c>
       <c r="H1089" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
@@ -39011,7 +38435,7 @@
         <v>-1215777.511712314</v>
       </c>
       <c r="H1090" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="inlineStr"/>
@@ -39044,7 +38468,7 @@
         <v>-1311958.759812314</v>
       </c>
       <c r="H1091" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
@@ -39077,7 +38501,7 @@
         <v>-1299943.759812314</v>
       </c>
       <c r="H1092" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
@@ -39143,7 +38567,7 @@
         <v>-1400194.386412314</v>
       </c>
       <c r="H1094" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
@@ -39242,7 +38666,7 @@
         <v>-1404166.073512314</v>
       </c>
       <c r="H1097" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
@@ -39275,7 +38699,7 @@
         <v>-1447057.945212314</v>
       </c>
       <c r="H1098" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
@@ -39308,7 +38732,7 @@
         <v>-1486857.295212314</v>
       </c>
       <c r="H1099" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
@@ -39407,7 +38831,7 @@
         <v>-1469859.165912314</v>
       </c>
       <c r="H1102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
@@ -43268,7 +42692,7 @@
         <v>-5035387.459512311</v>
       </c>
       <c r="H1219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1219" t="inlineStr"/>
       <c r="J1219" t="inlineStr"/>
@@ -43301,7 +42725,7 @@
         <v>-5193469.089312311</v>
       </c>
       <c r="H1220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1220" t="inlineStr"/>
       <c r="J1220" t="inlineStr"/>
@@ -43796,11 +43220,17 @@
         <v>-5539712.562212312</v>
       </c>
       <c r="H1235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>1.912</v>
+      </c>
       <c r="J1235" t="inlineStr"/>
-      <c r="K1235" t="inlineStr"/>
+      <c r="K1235" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1235" t="n">
         <v>1</v>
       </c>
@@ -43829,11 +43259,17 @@
         <v>-5496597.302312312</v>
       </c>
       <c r="H1236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>1.911</v>
+      </c>
       <c r="J1236" t="inlineStr"/>
-      <c r="K1236" t="inlineStr"/>
+      <c r="K1236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1236" t="n">
         <v>1</v>
       </c>
@@ -43862,11 +43298,17 @@
         <v>-5452911.588312312</v>
       </c>
       <c r="H1237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>1.921</v>
+      </c>
       <c r="J1237" t="inlineStr"/>
-      <c r="K1237" t="inlineStr"/>
+      <c r="K1237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1237" t="n">
         <v>1</v>
       </c>
@@ -43895,11 +43337,17 @@
         <v>-5434968.305712312</v>
       </c>
       <c r="H1238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>1.925</v>
+      </c>
       <c r="J1238" t="inlineStr"/>
-      <c r="K1238" t="inlineStr"/>
+      <c r="K1238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1238" t="n">
         <v>1</v>
       </c>
@@ -43928,11 +43376,15 @@
         <v>-5480249.157812312</v>
       </c>
       <c r="H1239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1239" t="inlineStr"/>
       <c r="J1239" t="inlineStr"/>
-      <c r="K1239" t="inlineStr"/>
+      <c r="K1239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1239" t="n">
         <v>1</v>
       </c>
@@ -43961,11 +43413,17 @@
         <v>-5441434.822412312</v>
       </c>
       <c r="H1240" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>1.933</v>
+      </c>
       <c r="J1240" t="inlineStr"/>
-      <c r="K1240" t="inlineStr"/>
+      <c r="K1240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1240" t="n">
         <v>1</v>
       </c>
@@ -43998,7 +43456,11 @@
       </c>
       <c r="I1241" t="inlineStr"/>
       <c r="J1241" t="inlineStr"/>
-      <c r="K1241" t="inlineStr"/>
+      <c r="K1241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1241" t="n">
         <v>1</v>
       </c>
@@ -44027,11 +43489,15 @@
         <v>-5461524.267212312</v>
       </c>
       <c r="H1242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1242" t="inlineStr"/>
       <c r="J1242" t="inlineStr"/>
-      <c r="K1242" t="inlineStr"/>
+      <c r="K1242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1242" t="n">
         <v>1</v>
       </c>
@@ -44064,7 +43530,11 @@
       </c>
       <c r="I1243" t="inlineStr"/>
       <c r="J1243" t="inlineStr"/>
-      <c r="K1243" t="inlineStr"/>
+      <c r="K1243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1243" t="n">
         <v>1</v>
       </c>
@@ -44097,7 +43567,11 @@
       </c>
       <c r="I1244" t="inlineStr"/>
       <c r="J1244" t="inlineStr"/>
-      <c r="K1244" t="inlineStr"/>
+      <c r="K1244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1244" t="n">
         <v>1</v>
       </c>
@@ -44126,11 +43600,17 @@
         <v>-5279586.810212312</v>
       </c>
       <c r="H1245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1245" t="n">
+        <v>1.913</v>
+      </c>
       <c r="J1245" t="inlineStr"/>
-      <c r="K1245" t="inlineStr"/>
+      <c r="K1245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1245" t="n">
         <v>1</v>
       </c>
@@ -44159,11 +43639,17 @@
         <v>-5355067.058712312</v>
       </c>
       <c r="H1246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1246" t="n">
+        <v>1.916</v>
+      </c>
       <c r="J1246" t="inlineStr"/>
-      <c r="K1246" t="inlineStr"/>
+      <c r="K1246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1246" t="n">
         <v>1</v>
       </c>
@@ -44192,11 +43678,17 @@
         <v>-5355067.058712312</v>
       </c>
       <c r="H1247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1247" t="n">
+        <v>1.906</v>
+      </c>
       <c r="J1247" t="inlineStr"/>
-      <c r="K1247" t="inlineStr"/>
+      <c r="K1247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1247" t="n">
         <v>1</v>
       </c>
@@ -44230,10 +43722,12 @@
       <c r="I1248" t="n">
         <v>1.906</v>
       </c>
-      <c r="J1248" t="n">
-        <v>1.906</v>
-      </c>
-      <c r="K1248" t="inlineStr"/>
+      <c r="J1248" t="inlineStr"/>
+      <c r="K1248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1248" t="n">
         <v>1</v>
       </c>
@@ -44267,12 +43761,10 @@
       <c r="I1249" t="n">
         <v>1.901</v>
       </c>
-      <c r="J1249" t="n">
-        <v>1.906</v>
-      </c>
+      <c r="J1249" t="inlineStr"/>
       <c r="K1249" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1249" t="n">
@@ -44306,12 +43798,10 @@
         <v>0</v>
       </c>
       <c r="I1250" t="inlineStr"/>
-      <c r="J1250" t="n">
-        <v>1.906</v>
-      </c>
+      <c r="J1250" t="inlineStr"/>
       <c r="K1250" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1250" t="n">
@@ -44345,9 +43835,7 @@
         <v>0</v>
       </c>
       <c r="I1251" t="inlineStr"/>
-      <c r="J1251" t="n">
-        <v>1.906</v>
-      </c>
+      <c r="J1251" t="inlineStr"/>
       <c r="K1251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44381,14 +43869,10 @@
         <v>-4556633.149712311</v>
       </c>
       <c r="H1252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1252" t="n">
-        <v>1.896</v>
-      </c>
-      <c r="J1252" t="n">
-        <v>1.906</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1252" t="inlineStr"/>
+      <c r="J1252" t="inlineStr"/>
       <c r="K1252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44425,9 +43909,7 @@
         <v>0</v>
       </c>
       <c r="I1253" t="inlineStr"/>
-      <c r="J1253" t="n">
-        <v>1.906</v>
-      </c>
+      <c r="J1253" t="inlineStr"/>
       <c r="K1253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44464,9 +43946,7 @@
         <v>0</v>
       </c>
       <c r="I1254" t="inlineStr"/>
-      <c r="J1254" t="n">
-        <v>1.906</v>
-      </c>
+      <c r="J1254" t="inlineStr"/>
       <c r="K1254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44503,9 +43983,7 @@
         <v>0</v>
       </c>
       <c r="I1255" t="inlineStr"/>
-      <c r="J1255" t="n">
-        <v>1.906</v>
-      </c>
+      <c r="J1255" t="inlineStr"/>
       <c r="K1255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44542,9 +44020,7 @@
         <v>0</v>
       </c>
       <c r="I1256" t="inlineStr"/>
-      <c r="J1256" t="n">
-        <v>1.906</v>
-      </c>
+      <c r="J1256" t="inlineStr"/>
       <c r="K1256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44581,9 +44057,7 @@
         <v>0</v>
       </c>
       <c r="I1257" t="inlineStr"/>
-      <c r="J1257" t="n">
-        <v>1.906</v>
-      </c>
+      <c r="J1257" t="inlineStr"/>
       <c r="K1257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44620,9 +44094,7 @@
         <v>0</v>
       </c>
       <c r="I1258" t="inlineStr"/>
-      <c r="J1258" t="n">
-        <v>1.906</v>
-      </c>
+      <c r="J1258" t="inlineStr"/>
       <c r="K1258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44659,9 +44131,7 @@
         <v>0</v>
       </c>
       <c r="I1259" t="inlineStr"/>
-      <c r="J1259" t="n">
-        <v>1.906</v>
-      </c>
+      <c r="J1259" t="inlineStr"/>
       <c r="K1259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44698,9 +44168,7 @@
         <v>0</v>
       </c>
       <c r="I1260" t="inlineStr"/>
-      <c r="J1260" t="n">
-        <v>1.906</v>
-      </c>
+      <c r="J1260" t="inlineStr"/>
       <c r="K1260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44737,9 +44205,7 @@
         <v>0</v>
       </c>
       <c r="I1261" t="inlineStr"/>
-      <c r="J1261" t="n">
-        <v>1.906</v>
-      </c>
+      <c r="J1261" t="inlineStr"/>
       <c r="K1261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44776,9 +44242,7 @@
         <v>0</v>
       </c>
       <c r="I1262" t="inlineStr"/>
-      <c r="J1262" t="n">
-        <v>1.906</v>
-      </c>
+      <c r="J1262" t="inlineStr"/>
       <c r="K1262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44815,9 +44279,7 @@
         <v>0</v>
       </c>
       <c r="I1263" t="inlineStr"/>
-      <c r="J1263" t="n">
-        <v>1.906</v>
-      </c>
+      <c r="J1263" t="inlineStr"/>
       <c r="K1263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44854,9 +44316,7 @@
         <v>0</v>
       </c>
       <c r="I1264" t="inlineStr"/>
-      <c r="J1264" t="n">
-        <v>1.906</v>
-      </c>
+      <c r="J1264" t="inlineStr"/>
       <c r="K1264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44893,9 +44353,7 @@
         <v>0</v>
       </c>
       <c r="I1265" t="inlineStr"/>
-      <c r="J1265" t="n">
-        <v>1.906</v>
-      </c>
+      <c r="J1265" t="inlineStr"/>
       <c r="K1265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44932,9 +44390,7 @@
         <v>0</v>
       </c>
       <c r="I1266" t="inlineStr"/>
-      <c r="J1266" t="n">
-        <v>1.906</v>
-      </c>
+      <c r="J1266" t="inlineStr"/>
       <c r="K1266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44971,9 +44427,7 @@
         <v>0</v>
       </c>
       <c r="I1267" t="inlineStr"/>
-      <c r="J1267" t="n">
-        <v>1.906</v>
-      </c>
+      <c r="J1267" t="inlineStr"/>
       <c r="K1267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45010,9 +44464,7 @@
         <v>0</v>
       </c>
       <c r="I1268" t="inlineStr"/>
-      <c r="J1268" t="n">
-        <v>1.906</v>
-      </c>
+      <c r="J1268" t="inlineStr"/>
       <c r="K1268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45049,9 +44501,7 @@
         <v>0</v>
       </c>
       <c r="I1269" t="inlineStr"/>
-      <c r="J1269" t="n">
-        <v>1.906</v>
-      </c>
+      <c r="J1269" t="inlineStr"/>
       <c r="K1269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45088,9 +44538,7 @@
         <v>0</v>
       </c>
       <c r="I1270" t="inlineStr"/>
-      <c r="J1270" t="n">
-        <v>1.906</v>
-      </c>
+      <c r="J1270" t="inlineStr"/>
       <c r="K1270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45127,9 +44575,7 @@
         <v>0</v>
       </c>
       <c r="I1271" t="inlineStr"/>
-      <c r="J1271" t="n">
-        <v>1.906</v>
-      </c>
+      <c r="J1271" t="inlineStr"/>
       <c r="K1271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45166,9 +44612,7 @@
         <v>0</v>
       </c>
       <c r="I1272" t="inlineStr"/>
-      <c r="J1272" t="n">
-        <v>1.906</v>
-      </c>
+      <c r="J1272" t="inlineStr"/>
       <c r="K1272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45205,9 +44649,7 @@
         <v>0</v>
       </c>
       <c r="I1273" t="inlineStr"/>
-      <c r="J1273" t="n">
-        <v>1.906</v>
-      </c>
+      <c r="J1273" t="inlineStr"/>
       <c r="K1273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45244,9 +44686,7 @@
         <v>0</v>
       </c>
       <c r="I1274" t="inlineStr"/>
-      <c r="J1274" t="n">
-        <v>1.906</v>
-      </c>
+      <c r="J1274" t="inlineStr"/>
       <c r="K1274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45283,9 +44723,7 @@
         <v>0</v>
       </c>
       <c r="I1275" t="inlineStr"/>
-      <c r="J1275" t="n">
-        <v>1.906</v>
-      </c>
+      <c r="J1275" t="inlineStr"/>
       <c r="K1275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45322,9 +44760,7 @@
         <v>0</v>
       </c>
       <c r="I1276" t="inlineStr"/>
-      <c r="J1276" t="n">
-        <v>1.906</v>
-      </c>
+      <c r="J1276" t="inlineStr"/>
       <c r="K1276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45361,9 +44797,7 @@
         <v>0</v>
       </c>
       <c r="I1277" t="inlineStr"/>
-      <c r="J1277" t="n">
-        <v>1.906</v>
-      </c>
+      <c r="J1277" t="inlineStr"/>
       <c r="K1277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45400,9 +44834,7 @@
         <v>0</v>
       </c>
       <c r="I1278" t="inlineStr"/>
-      <c r="J1278" t="n">
-        <v>1.906</v>
-      </c>
+      <c r="J1278" t="inlineStr"/>
       <c r="K1278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45439,9 +44871,7 @@
         <v>0</v>
       </c>
       <c r="I1279" t="inlineStr"/>
-      <c r="J1279" t="n">
-        <v>1.906</v>
-      </c>
+      <c r="J1279" t="inlineStr"/>
       <c r="K1279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45478,9 +44908,7 @@
         <v>0</v>
       </c>
       <c r="I1280" t="inlineStr"/>
-      <c r="J1280" t="n">
-        <v>1.906</v>
-      </c>
+      <c r="J1280" t="inlineStr"/>
       <c r="K1280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45517,9 +44945,7 @@
         <v>0</v>
       </c>
       <c r="I1281" t="inlineStr"/>
-      <c r="J1281" t="n">
-        <v>1.906</v>
-      </c>
+      <c r="J1281" t="inlineStr"/>
       <c r="K1281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45556,9 +44982,7 @@
         <v>0</v>
       </c>
       <c r="I1282" t="inlineStr"/>
-      <c r="J1282" t="n">
-        <v>1.906</v>
-      </c>
+      <c r="J1282" t="inlineStr"/>
       <c r="K1282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45595,9 +45019,7 @@
         <v>0</v>
       </c>
       <c r="I1283" t="inlineStr"/>
-      <c r="J1283" t="n">
-        <v>1.906</v>
-      </c>
+      <c r="J1283" t="inlineStr"/>
       <c r="K1283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45634,9 +45056,7 @@
         <v>0</v>
       </c>
       <c r="I1284" t="inlineStr"/>
-      <c r="J1284" t="n">
-        <v>1.906</v>
-      </c>
+      <c r="J1284" t="inlineStr"/>
       <c r="K1284" t="inlineStr">
         <is>
           <t>매도 대기</t>
